--- a/outcome/model_select_flu.xlsx
+++ b/outcome/model_select_flu.xlsx
@@ -623,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="n">
-        <v>27.1408370327501</v>
+        <v>27.0588841864656</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -634,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>0.945193800161983</v>
+        <v>0.945577319059369</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="n">
-        <v>21.3239715933615</v>
+        <v>21.213030424523</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -821,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="B35" t="n">
-        <v>625.554585437374</v>
+        <v>628.690452522894</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="B36" t="n">
-        <v>0.803137003558673</v>
+        <v>0.800756585455573</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="B37" t="n">
-        <v>466.967803659487</v>
+        <v>472.257120186966</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -1019,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="B53" t="n">
-        <v>128.240281927917</v>
+        <v>129.883842436624</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="n">
-        <v>0.939697195929681</v>
+        <v>0.938125548733286</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -1041,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="n">
-        <v>90.6108281537355</v>
+        <v>93.357024986356</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -1217,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="n">
-        <v>120.128077655945</v>
+        <v>124.085243117346</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -1228,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.989524109671527</v>
+        <v>0.988781448514354</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -1239,7 +1239,7 @@
         <v>9</v>
       </c>
       <c r="B73" t="n">
-        <v>97.8404045931194</v>
+        <v>102.179064362687</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -1382,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="B86" t="n">
-        <v>33.9746430054511</v>
+        <v>33.9885414923383</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B87" t="n">
-        <v>0.697795761786108</v>
+        <v>0.697632700016677</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="B88" t="n">
-        <v>18.3120215518764</v>
+        <v>18.2979769495939</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -1580,7 +1580,7 @@
         <v>9</v>
       </c>
       <c r="B104" t="n">
-        <v>20618.2005150832</v>
+        <v>21110.3147340431</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -1591,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="B105" t="n">
-        <v>0.873135600321432</v>
+        <v>0.867444543794486</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -1602,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="B106" t="n">
-        <v>9781.05833786412</v>
+        <v>9839.0753723523</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -1778,7 +1778,7 @@
         <v>9</v>
       </c>
       <c r="B122" t="n">
-        <v>2395.7503780398</v>
+        <v>2360.33162234367</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
@@ -1789,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="B123" t="n">
-        <v>0.941102289262575</v>
+        <v>0.942642702572779</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
@@ -1800,7 +1800,7 @@
         <v>9</v>
       </c>
       <c r="B124" t="n">
-        <v>1417.14624541776</v>
+        <v>1390.63682336993</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
@@ -1976,7 +1976,7 @@
         <v>9</v>
       </c>
       <c r="B140" t="n">
-        <v>4237.97199855956</v>
+        <v>4366.56786565256</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
@@ -1987,7 +1987,7 @@
         <v>9</v>
       </c>
       <c r="B141" t="n">
-        <v>0.848573074934806</v>
+        <v>0.829994372103503</v>
       </c>
       <c r="C141" t="s">
         <v>16</v>
@@ -1998,7 +1998,7 @@
         <v>9</v>
       </c>
       <c r="B142" t="n">
-        <v>1795.80456990646</v>
+        <v>1844.99146167903</v>
       </c>
       <c r="C142" t="s">
         <v>16</v>
@@ -2174,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="B158" t="n">
-        <v>437.542659709732</v>
+        <v>437.828805246101</v>
       </c>
       <c r="C158" t="s">
         <v>17</v>
@@ -2185,7 +2185,7 @@
         <v>9</v>
       </c>
       <c r="B159" t="n">
-        <v>0.900662329162955</v>
+        <v>0.900532237112692</v>
       </c>
       <c r="C159" t="s">
         <v>17</v>
@@ -2196,7 +2196,7 @@
         <v>9</v>
       </c>
       <c r="B160" t="n">
-        <v>359.759160982829</v>
+        <v>360.026713736033</v>
       </c>
       <c r="C160" t="s">
         <v>17</v>
@@ -2372,7 +2372,7 @@
         <v>9</v>
       </c>
       <c r="B176" t="n">
-        <v>4810.33138225992</v>
+        <v>4772.13275940745</v>
       </c>
       <c r="C176" t="s">
         <v>18</v>
@@ -2383,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="B177" t="n">
-        <v>0.97939374142834</v>
+        <v>0.979696645550095</v>
       </c>
       <c r="C177" t="s">
         <v>18</v>
@@ -2394,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="B178" t="n">
-        <v>3845.78523783327</v>
+        <v>3821.11639613068</v>
       </c>
       <c r="C178" t="s">
         <v>18</v>
@@ -2570,7 +2570,7 @@
         <v>9</v>
       </c>
       <c r="B194" t="n">
-        <v>478.464780867323</v>
+        <v>485.276486599555</v>
       </c>
       <c r="C194" t="s">
         <v>19</v>
@@ -2581,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="B195" t="n">
-        <v>0.881213845437833</v>
+        <v>0.877770224769362</v>
       </c>
       <c r="C195" t="s">
         <v>19</v>
@@ -2592,7 +2592,7 @@
         <v>9</v>
       </c>
       <c r="B196" t="n">
-        <v>353.810483063338</v>
+        <v>359.677408433745</v>
       </c>
       <c r="C196" t="s">
         <v>19</v>
@@ -2768,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="B212" t="n">
-        <v>61.465039275961</v>
+        <v>59.7741152106159</v>
       </c>
       <c r="C212" t="s">
         <v>20</v>
@@ -2779,7 +2779,7 @@
         <v>9</v>
       </c>
       <c r="B213" t="n">
-        <v>0.971714056336725</v>
+        <v>0.973259623405419</v>
       </c>
       <c r="C213" t="s">
         <v>20</v>
@@ -2790,7 +2790,7 @@
         <v>9</v>
       </c>
       <c r="B214" t="n">
-        <v>48.0548815354431</v>
+        <v>46.4461507160177</v>
       </c>
       <c r="C214" t="s">
         <v>20</v>
@@ -2966,7 +2966,7 @@
         <v>9</v>
       </c>
       <c r="B230" t="n">
-        <v>84.5898911757503</v>
+        <v>84.345488629234</v>
       </c>
       <c r="C230" t="s">
         <v>21</v>
@@ -2977,7 +2977,7 @@
         <v>9</v>
       </c>
       <c r="B231" t="n">
-        <v>0.891584519965087</v>
+        <v>0.892996318190846</v>
       </c>
       <c r="C231" t="s">
         <v>21</v>
@@ -2988,7 +2988,7 @@
         <v>9</v>
       </c>
       <c r="B232" t="n">
-        <v>54.8304691854447</v>
+        <v>55.339638185842</v>
       </c>
       <c r="C232" t="s">
         <v>21</v>
@@ -3164,7 +3164,7 @@
         <v>9</v>
       </c>
       <c r="B248" t="n">
-        <v>3736.81114961138</v>
+        <v>3789.69112164233</v>
       </c>
       <c r="C248" t="s">
         <v>22</v>
@@ -3175,7 +3175,7 @@
         <v>9</v>
       </c>
       <c r="B249" t="n">
-        <v>0.85862390194751</v>
+        <v>0.853306913009222</v>
       </c>
       <c r="C249" t="s">
         <v>22</v>
@@ -3186,7 +3186,7 @@
         <v>9</v>
       </c>
       <c r="B250" t="n">
-        <v>2393.59786339498</v>
+        <v>2499.40881583723</v>
       </c>
       <c r="C250" t="s">
         <v>22</v>
@@ -3362,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="B266" t="n">
-        <v>2153.0024538331</v>
+        <v>2140.51693587086</v>
       </c>
       <c r="C266" t="s">
         <v>23</v>
@@ -3373,7 +3373,7 @@
         <v>9</v>
       </c>
       <c r="B267" t="n">
-        <v>0.901136242449582</v>
+        <v>0.90222864247946</v>
       </c>
       <c r="C267" t="s">
         <v>23</v>
@@ -3384,7 +3384,7 @@
         <v>9</v>
       </c>
       <c r="B268" t="n">
-        <v>1153.27563399535</v>
+        <v>1152.93243989834</v>
       </c>
       <c r="C268" t="s">
         <v>23</v>
@@ -3560,7 +3560,7 @@
         <v>9</v>
       </c>
       <c r="B284" t="n">
-        <v>1526.07899819111</v>
+        <v>1540.81364022609</v>
       </c>
       <c r="C284" t="s">
         <v>24</v>
@@ -3571,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="B285" t="n">
-        <v>0.935224467052263</v>
+        <v>0.933574237034566</v>
       </c>
       <c r="C285" t="s">
         <v>24</v>
@@ -3582,7 +3582,7 @@
         <v>9</v>
       </c>
       <c r="B286" t="n">
-        <v>1042.66740697387</v>
+        <v>1047.27678594763</v>
       </c>
       <c r="C286" t="s">
         <v>24</v>
@@ -3758,7 +3758,7 @@
         <v>9</v>
       </c>
       <c r="B302" t="n">
-        <v>5126.5835614736</v>
+        <v>5148.50274527318</v>
       </c>
       <c r="C302" t="s">
         <v>25</v>
@@ -3769,7 +3769,7 @@
         <v>9</v>
       </c>
       <c r="B303" t="n">
-        <v>0.955106040689678</v>
+        <v>0.954662955000216</v>
       </c>
       <c r="C303" t="s">
         <v>25</v>
@@ -3780,7 +3780,7 @@
         <v>9</v>
       </c>
       <c r="B304" t="n">
-        <v>3589.34972017325</v>
+        <v>3590.42598580729</v>
       </c>
       <c r="C304" t="s">
         <v>25</v>
@@ -3956,7 +3956,7 @@
         <v>9</v>
       </c>
       <c r="B320" t="n">
-        <v>297.141812949091</v>
+        <v>288.298021494018</v>
       </c>
       <c r="C320" t="s">
         <v>26</v>
@@ -3967,7 +3967,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="n">
-        <v>0.960563604295453</v>
+        <v>0.962976486722119</v>
       </c>
       <c r="C321" t="s">
         <v>26</v>
@@ -3978,7 +3978,7 @@
         <v>9</v>
       </c>
       <c r="B322" t="n">
-        <v>242.772421267538</v>
+        <v>239.324407800383</v>
       </c>
       <c r="C322" t="s">
         <v>26</v>
@@ -4154,7 +4154,7 @@
         <v>9</v>
       </c>
       <c r="B338" t="n">
-        <v>4651.61809584863</v>
+        <v>4670.82836573042</v>
       </c>
       <c r="C338" t="s">
         <v>27</v>
@@ -4165,7 +4165,7 @@
         <v>9</v>
       </c>
       <c r="B339" t="n">
-        <v>0.773407417829792</v>
+        <v>0.771574206891221</v>
       </c>
       <c r="C339" t="s">
         <v>27</v>
@@ -4176,7 +4176,7 @@
         <v>9</v>
       </c>
       <c r="B340" t="n">
-        <v>3020.31993369672</v>
+        <v>2995.38202750462</v>
       </c>
       <c r="C340" t="s">
         <v>27</v>
@@ -4515,7 +4515,7 @@
         <v>9</v>
       </c>
       <c r="B371" t="n">
-        <v>350.515596713571</v>
+        <v>348.097457264998</v>
       </c>
       <c r="C371" t="s">
         <v>29</v>
@@ -4526,7 +4526,7 @@
         <v>9</v>
       </c>
       <c r="B372" t="n">
-        <v>0.913437099871907</v>
+        <v>0.914965888171932</v>
       </c>
       <c r="C372" t="s">
         <v>29</v>
@@ -4537,7 +4537,7 @@
         <v>9</v>
       </c>
       <c r="B373" t="n">
-        <v>285.743329993119</v>
+        <v>282.88457330997</v>
       </c>
       <c r="C373" t="s">
         <v>29</v>
@@ -4878,7 +4878,7 @@
         <v>9</v>
       </c>
       <c r="B404" t="n">
-        <v>114.713028418691</v>
+        <v>117.661625075055</v>
       </c>
       <c r="C404" t="s">
         <v>31</v>
@@ -4889,7 +4889,7 @@
         <v>9</v>
       </c>
       <c r="B405" t="n">
-        <v>0.439596857689291</v>
+        <v>0.411006510655285</v>
       </c>
       <c r="C405" t="s">
         <v>31</v>
@@ -4900,7 +4900,7 @@
         <v>9</v>
       </c>
       <c r="B406" t="n">
-        <v>72.6699174400881</v>
+        <v>73.4088012336635</v>
       </c>
       <c r="C406" t="s">
         <v>31</v>
@@ -5076,7 +5076,7 @@
         <v>9</v>
       </c>
       <c r="B422" t="n">
-        <v>25.5416080721004</v>
+        <v>25.3623287650341</v>
       </c>
       <c r="C422" t="s">
         <v>32</v>
@@ -5087,7 +5087,7 @@
         <v>9</v>
       </c>
       <c r="B423" t="n">
-        <v>0.88402733275971</v>
+        <v>0.885761269520044</v>
       </c>
       <c r="C423" t="s">
         <v>32</v>
@@ -5098,7 +5098,7 @@
         <v>9</v>
       </c>
       <c r="B424" t="n">
-        <v>20.0439101527778</v>
+        <v>19.9786966247918</v>
       </c>
       <c r="C424" t="s">
         <v>32</v>

--- a/outcome/model_select_flu.xlsx
+++ b/outcome/model_select_flu.xlsx
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>30.7670556018531</v>
+        <v>30.767055634693</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.928026039528547</v>
+        <v>0.92802603941414</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.5990301176769</v>
+        <v>20.5990301378923</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -524,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.2097470326069</v>
+        <v>34.2097753106345</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -535,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>0.907302016872087</v>
+        <v>0.907301958131851</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>23.1404169735268</v>
+        <v>23.1405049886204</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -623,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="n">
-        <v>27.0588841864656</v>
+        <v>27.0323003202345</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -634,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>0.945577319059369</v>
+        <v>0.94566734892578</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="n">
-        <v>21.213030424523</v>
+        <v>21.2933060606781</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="n">
-        <v>0.859352169374706</v>
+        <v>0.859352169374664</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>403.56576755302</v>
+        <v>403.565767553226</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7781404012059</v>
+        <v>0.778140401205899</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -722,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="n">
-        <v>573.122386028175</v>
+        <v>573.122386202039</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="n">
-        <v>0.831787490274025</v>
+        <v>0.831787490164117</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -744,7 +744,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="n">
-        <v>433.565037538954</v>
+        <v>433.565037488766</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="n">
-        <v>858.258083016604</v>
+        <v>858.25808301674</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="n">
-        <v>709.819751058446</v>
+        <v>709.819751058596</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -821,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="B35" t="n">
-        <v>628.690452522894</v>
+        <v>631.225807592306</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="B36" t="n">
-        <v>0.800756585455573</v>
+        <v>0.798915801974838</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="B37" t="n">
-        <v>472.257120186966</v>
+        <v>478.573982588119</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -898,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0015228526702287</v>
+        <v>0.00152285267022865</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -909,7 +909,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>450.465238372578</v>
+        <v>450.465238372579</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="n">
-        <v>161.561328416371</v>
+        <v>161.561328429123</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -931,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="B45" t="n">
-        <v>0.904475004019503</v>
+        <v>0.904475003973589</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -942,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="B46" t="n">
-        <v>114.974622831224</v>
+        <v>114.974623071159</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -1019,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="B53" t="n">
-        <v>129.883842436624</v>
+        <v>128.795065829069</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="n">
-        <v>0.938125548733286</v>
+        <v>0.93915441710261</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -1041,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="n">
-        <v>93.357024986356</v>
+        <v>91.6258582092352</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -1052,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="n">
-        <v>171.42983637156</v>
+        <v>171.429828119056</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="n">
-        <v>0.975919336583136</v>
+        <v>0.975919338800464</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -1074,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="n">
-        <v>111.919795505839</v>
+        <v>111.919861788367</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -1118,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="B62" t="n">
-        <v>192.340177860072</v>
+        <v>192.340394525465</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B63" t="n">
-        <v>0.971721340944603</v>
+        <v>0.971721274114225</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="B64" t="n">
-        <v>142.394044549445</v>
+        <v>142.394181695984</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -1184,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="n">
-        <v>118.778114252838</v>
+        <v>118.778114252856</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -1206,7 +1206,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="n">
-        <v>84.5782320252381</v>
+        <v>84.5782320252383</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -1217,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="n">
-        <v>124.085243117346</v>
+        <v>121.197250531524</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -1228,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.988781448514354</v>
+        <v>0.989302273278416</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -1239,7 +1239,7 @@
         <v>9</v>
       </c>
       <c r="B73" t="n">
-        <v>102.179064362687</v>
+        <v>99.1108407077058</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -1305,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="n">
-        <v>60.7384937293975</v>
+        <v>60.7384937293974</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -1316,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="n">
-        <v>5.61056648121575</v>
+        <v>5.61054881756849</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -1327,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="B81" t="n">
-        <v>0.991215419869458</v>
+        <v>0.991215419053279</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -1338,7 +1338,7 @@
         <v>6</v>
       </c>
       <c r="B82" t="n">
-        <v>3.81960074134048</v>
+        <v>3.81949236839968</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -1382,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="B86" t="n">
-        <v>33.9885414923383</v>
+        <v>34.0435145199254</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B87" t="n">
-        <v>0.697632700016677</v>
+        <v>0.696729225046515</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -1404,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="B88" t="n">
-        <v>18.2979769495939</v>
+        <v>18.3250329687452</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -1481,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="B95" t="n">
-        <v>21487.5037646342</v>
+        <v>21487.4802462478</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -1492,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="B96" t="n">
-        <v>0.858175106203523</v>
+        <v>0.858175427094907</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -1503,7 +1503,7 @@
         <v>6</v>
       </c>
       <c r="B97" t="n">
-        <v>12669.0076180692</v>
+        <v>12669.0009618102</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -1580,7 +1580,7 @@
         <v>9</v>
       </c>
       <c r="B104" t="n">
-        <v>21110.3147340431</v>
+        <v>21125.597135113</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -1591,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="B105" t="n">
-        <v>0.867444543794486</v>
+        <v>0.86767572453771</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -1602,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="B106" t="n">
-        <v>9839.0753723523</v>
+        <v>9872.0450651367</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="B107" t="n">
-        <v>3479.01031155685</v>
+        <v>3479.01031155078</v>
       </c>
       <c r="C107" t="s">
         <v>15</v>
@@ -1624,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="B108" t="n">
-        <v>0.833845506698324</v>
+        <v>0.833845506698121</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
@@ -1635,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="B109" t="n">
-        <v>1786.7900522199</v>
+        <v>1786.79005222234</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
@@ -1679,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="B113" t="n">
-        <v>1642.74086288593</v>
+        <v>1642.74579822414</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
@@ -1690,7 +1690,7 @@
         <v>6</v>
       </c>
       <c r="B114" t="n">
-        <v>0.970734173994079</v>
+        <v>0.970734035465704</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
@@ -1701,7 +1701,7 @@
         <v>6</v>
       </c>
       <c r="B115" t="n">
-        <v>1201.84173957229</v>
+        <v>1201.84543533327</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
@@ -1778,7 +1778,7 @@
         <v>9</v>
       </c>
       <c r="B122" t="n">
-        <v>2360.33162234367</v>
+        <v>2344.55733191219</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
@@ -1789,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="B123" t="n">
-        <v>0.942642702572779</v>
+        <v>0.94326878954529</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
@@ -1800,7 +1800,7 @@
         <v>9</v>
       </c>
       <c r="B124" t="n">
-        <v>1390.63682336993</v>
+        <v>1375.11760779077</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
@@ -1877,7 +1877,7 @@
         <v>6</v>
       </c>
       <c r="B131" t="n">
-        <v>3059.81460347219</v>
+        <v>3059.81459306863</v>
       </c>
       <c r="C131" t="s">
         <v>16</v>
@@ -1888,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="B132" t="n">
-        <v>0.882142085606084</v>
+        <v>0.882142085497737</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
@@ -1899,7 +1899,7 @@
         <v>6</v>
       </c>
       <c r="B133" t="n">
-        <v>1503.42539401057</v>
+        <v>1503.42537771351</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
@@ -1976,7 +1976,7 @@
         <v>9</v>
       </c>
       <c r="B140" t="n">
-        <v>4366.56786565256</v>
+        <v>4244.50515628588</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
@@ -1987,7 +1987,7 @@
         <v>9</v>
       </c>
       <c r="B141" t="n">
-        <v>0.829994372103503</v>
+        <v>0.847404092492997</v>
       </c>
       <c r="C141" t="s">
         <v>16</v>
@@ -1998,7 +1998,7 @@
         <v>9</v>
       </c>
       <c r="B142" t="n">
-        <v>1844.99146167903</v>
+        <v>1804.17835928148</v>
       </c>
       <c r="C142" t="s">
         <v>16</v>
@@ -2075,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="B149" t="n">
-        <v>578.77053294732</v>
+        <v>578.77052406819</v>
       </c>
       <c r="C149" t="s">
         <v>17</v>
@@ -2086,7 +2086,7 @@
         <v>6</v>
       </c>
       <c r="B150" t="n">
-        <v>0.823318876732207</v>
+        <v>0.823318882134915</v>
       </c>
       <c r="C150" t="s">
         <v>17</v>
@@ -2097,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="B151" t="n">
-        <v>455.727064705542</v>
+        <v>455.727051163698</v>
       </c>
       <c r="C151" t="s">
         <v>17</v>
@@ -2174,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="B158" t="n">
-        <v>437.828805246101</v>
+        <v>439.551599682622</v>
       </c>
       <c r="C158" t="s">
         <v>17</v>
@@ -2185,7 +2185,7 @@
         <v>9</v>
       </c>
       <c r="B159" t="n">
-        <v>0.900532237112692</v>
+        <v>0.899721718056394</v>
       </c>
       <c r="C159" t="s">
         <v>17</v>
@@ -2196,7 +2196,7 @@
         <v>9</v>
       </c>
       <c r="B160" t="n">
-        <v>360.026713736033</v>
+        <v>361.125442113413</v>
       </c>
       <c r="C160" t="s">
         <v>17</v>
@@ -2207,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="B161" t="n">
-        <v>8022.96887636331</v>
+        <v>8022.96888784691</v>
       </c>
       <c r="C161" t="s">
         <v>18</v>
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="B162" t="n">
-        <v>0.96155076004196</v>
+        <v>0.961550760137815</v>
       </c>
       <c r="C162" t="s">
         <v>18</v>
@@ -2229,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="B163" t="n">
-        <v>5036.10167887653</v>
+        <v>5036.10169726843</v>
       </c>
       <c r="C163" t="s">
         <v>18</v>
@@ -2273,7 +2273,7 @@
         <v>6</v>
       </c>
       <c r="B167" t="n">
-        <v>4501.13410830544</v>
+        <v>4501.13410725529</v>
       </c>
       <c r="C167" t="s">
         <v>18</v>
@@ -2284,7 +2284,7 @@
         <v>6</v>
       </c>
       <c r="B168" t="n">
-        <v>0.98091335369894</v>
+        <v>0.980913353704098</v>
       </c>
       <c r="C168" t="s">
         <v>18</v>
@@ -2295,7 +2295,7 @@
         <v>6</v>
       </c>
       <c r="B169" t="n">
-        <v>3268.92594807486</v>
+        <v>3268.92594587222</v>
       </c>
       <c r="C169" t="s">
         <v>18</v>
@@ -2372,7 +2372,7 @@
         <v>9</v>
       </c>
       <c r="B176" t="n">
-        <v>4772.13275940745</v>
+        <v>4708.87863219308</v>
       </c>
       <c r="C176" t="s">
         <v>18</v>
@@ -2383,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="B177" t="n">
-        <v>0.979696645550095</v>
+        <v>0.98023049813511</v>
       </c>
       <c r="C177" t="s">
         <v>18</v>
@@ -2394,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="B178" t="n">
-        <v>3821.11639613068</v>
+        <v>3785.12375511444</v>
       </c>
       <c r="C178" t="s">
         <v>18</v>
@@ -2471,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="B185" t="n">
-        <v>361.328133707302</v>
+        <v>361.328133706062</v>
       </c>
       <c r="C185" t="s">
         <v>19</v>
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B186" t="n">
-        <v>0.932062215383346</v>
+        <v>0.932062215383629</v>
       </c>
       <c r="C186" t="s">
         <v>19</v>
@@ -2493,7 +2493,7 @@
         <v>6</v>
       </c>
       <c r="B187" t="n">
-        <v>273.327502404321</v>
+        <v>273.327502402629</v>
       </c>
       <c r="C187" t="s">
         <v>19</v>
@@ -2504,7 +2504,7 @@
         <v>7</v>
       </c>
       <c r="B188" t="n">
-        <v>445.981224857404</v>
+        <v>445.981224857412</v>
       </c>
       <c r="C188" t="s">
         <v>19</v>
@@ -2526,7 +2526,7 @@
         <v>7</v>
       </c>
       <c r="B190" t="n">
-        <v>327.858893534878</v>
+        <v>327.858893534782</v>
       </c>
       <c r="C190" t="s">
         <v>19</v>
@@ -2537,7 +2537,7 @@
         <v>8</v>
       </c>
       <c r="B191" t="n">
-        <v>487.63979064344</v>
+        <v>487.639790643464</v>
       </c>
       <c r="C191" t="s">
         <v>19</v>
@@ -2548,7 +2548,7 @@
         <v>8</v>
       </c>
       <c r="B192" t="n">
-        <v>0.909800960589562</v>
+        <v>0.909800960589556</v>
       </c>
       <c r="C192" t="s">
         <v>19</v>
@@ -2559,7 +2559,7 @@
         <v>8</v>
       </c>
       <c r="B193" t="n">
-        <v>377.610126360689</v>
+        <v>377.610126360715</v>
       </c>
       <c r="C193" t="s">
         <v>19</v>
@@ -2570,7 +2570,7 @@
         <v>9</v>
       </c>
       <c r="B194" t="n">
-        <v>485.276486599555</v>
+        <v>480.202619179841</v>
       </c>
       <c r="C194" t="s">
         <v>19</v>
@@ -2581,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="B195" t="n">
-        <v>0.877770224769362</v>
+        <v>0.880400012838789</v>
       </c>
       <c r="C195" t="s">
         <v>19</v>
@@ -2592,7 +2592,7 @@
         <v>9</v>
       </c>
       <c r="B196" t="n">
-        <v>359.677408433745</v>
+        <v>354.443134435716</v>
       </c>
       <c r="C196" t="s">
         <v>19</v>
@@ -2647,7 +2647,7 @@
         <v>5</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1982126837246</v>
+        <v>0.198212683724601</v>
       </c>
       <c r="C201" t="s">
         <v>20</v>
@@ -2669,7 +2669,7 @@
         <v>6</v>
       </c>
       <c r="B203" t="n">
-        <v>103.857891941304</v>
+        <v>103.857892017457</v>
       </c>
       <c r="C203" t="s">
         <v>20</v>
@@ -2680,7 +2680,7 @@
         <v>6</v>
       </c>
       <c r="B204" t="n">
-        <v>0.918960285682794</v>
+        <v>0.918960285450638</v>
       </c>
       <c r="C204" t="s">
         <v>20</v>
@@ -2691,7 +2691,7 @@
         <v>6</v>
       </c>
       <c r="B205" t="n">
-        <v>83.8165291137683</v>
+        <v>83.8165285256498</v>
       </c>
       <c r="C205" t="s">
         <v>20</v>
@@ -2735,7 +2735,7 @@
         <v>8</v>
       </c>
       <c r="B209" t="n">
-        <v>83.4576158411494</v>
+        <v>83.4576158411371</v>
       </c>
       <c r="C209" t="s">
         <v>20</v>
@@ -2746,7 +2746,7 @@
         <v>8</v>
       </c>
       <c r="B210" t="n">
-        <v>0.967398126471698</v>
+        <v>0.967398126471707</v>
       </c>
       <c r="C210" t="s">
         <v>20</v>
@@ -2757,7 +2757,7 @@
         <v>8</v>
       </c>
       <c r="B211" t="n">
-        <v>61.9187390853966</v>
+        <v>61.9187390853896</v>
       </c>
       <c r="C211" t="s">
         <v>20</v>
@@ -2768,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="B212" t="n">
-        <v>59.7741152106159</v>
+        <v>61.1417129023947</v>
       </c>
       <c r="C212" t="s">
         <v>20</v>
@@ -2779,7 +2779,7 @@
         <v>9</v>
       </c>
       <c r="B213" t="n">
-        <v>0.973259623405419</v>
+        <v>0.972013509905399</v>
       </c>
       <c r="C213" t="s">
         <v>20</v>
@@ -2790,7 +2790,7 @@
         <v>9</v>
       </c>
       <c r="B214" t="n">
-        <v>46.4461507160177</v>
+        <v>48.0187795797849</v>
       </c>
       <c r="C214" t="s">
         <v>20</v>
@@ -2801,7 +2801,7 @@
         <v>3</v>
       </c>
       <c r="B215" t="n">
-        <v>108.825340481103</v>
+        <v>108.825340469341</v>
       </c>
       <c r="C215" t="s">
         <v>21</v>
@@ -2812,7 +2812,7 @@
         <v>3</v>
       </c>
       <c r="B216" t="n">
-        <v>0.845741045443453</v>
+        <v>0.845741045524089</v>
       </c>
       <c r="C216" t="s">
         <v>21</v>
@@ -2823,7 +2823,7 @@
         <v>3</v>
       </c>
       <c r="B217" t="n">
-        <v>68.7793106253239</v>
+        <v>68.7793105485814</v>
       </c>
       <c r="C217" t="s">
         <v>21</v>
@@ -2867,7 +2867,7 @@
         <v>6</v>
       </c>
       <c r="B221" t="n">
-        <v>71.4542550238119</v>
+        <v>71.4542549767644</v>
       </c>
       <c r="C221" t="s">
         <v>21</v>
@@ -2878,7 +2878,7 @@
         <v>6</v>
       </c>
       <c r="B222" t="n">
-        <v>0.927110781153121</v>
+        <v>0.927110781072103</v>
       </c>
       <c r="C222" t="s">
         <v>21</v>
@@ -2889,7 +2889,7 @@
         <v>6</v>
       </c>
       <c r="B223" t="n">
-        <v>57.6688096650055</v>
+        <v>57.6688095430669</v>
       </c>
       <c r="C223" t="s">
         <v>21</v>
@@ -2966,7 +2966,7 @@
         <v>9</v>
       </c>
       <c r="B230" t="n">
-        <v>84.345488629234</v>
+        <v>81.9515840797303</v>
       </c>
       <c r="C230" t="s">
         <v>21</v>
@@ -2977,7 +2977,7 @@
         <v>9</v>
       </c>
       <c r="B231" t="n">
-        <v>0.892996318190846</v>
+        <v>0.899253657944638</v>
       </c>
       <c r="C231" t="s">
         <v>21</v>
@@ -2988,7 +2988,7 @@
         <v>9</v>
       </c>
       <c r="B232" t="n">
-        <v>55.339638185842</v>
+        <v>54.2541504216061</v>
       </c>
       <c r="C232" t="s">
         <v>21</v>
@@ -3043,7 +3043,7 @@
         <v>5</v>
       </c>
       <c r="B237" t="n">
-        <v>0.0198124284137607</v>
+        <v>0.0198124284137608</v>
       </c>
       <c r="C237" t="s">
         <v>22</v>
@@ -3065,7 +3065,7 @@
         <v>6</v>
       </c>
       <c r="B239" t="n">
-        <v>4456.2620801707</v>
+        <v>4456.26193569975</v>
       </c>
       <c r="C239" t="s">
         <v>22</v>
@@ -3076,7 +3076,7 @@
         <v>6</v>
       </c>
       <c r="B240" t="n">
-        <v>0.790821338099087</v>
+        <v>0.790821338659691</v>
       </c>
       <c r="C240" t="s">
         <v>22</v>
@@ -3087,7 +3087,7 @@
         <v>6</v>
       </c>
       <c r="B241" t="n">
-        <v>3291.10041277301</v>
+        <v>3291.10048898179</v>
       </c>
       <c r="C241" t="s">
         <v>22</v>
@@ -3164,7 +3164,7 @@
         <v>9</v>
       </c>
       <c r="B248" t="n">
-        <v>3789.69112164233</v>
+        <v>3773.84439157252</v>
       </c>
       <c r="C248" t="s">
         <v>22</v>
@@ -3175,7 +3175,7 @@
         <v>9</v>
       </c>
       <c r="B249" t="n">
-        <v>0.853306913009222</v>
+        <v>0.855032255383776</v>
       </c>
       <c r="C249" t="s">
         <v>22</v>
@@ -3186,7 +3186,7 @@
         <v>9</v>
       </c>
       <c r="B250" t="n">
-        <v>2499.40881583723</v>
+        <v>2460.83634677192</v>
       </c>
       <c r="C250" t="s">
         <v>22</v>
@@ -3197,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="B251" t="n">
-        <v>2555.39404950759</v>
+        <v>2555.39405210206</v>
       </c>
       <c r="C251" t="s">
         <v>23</v>
@@ -3208,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="B252" t="n">
-        <v>0.874814141620306</v>
+        <v>0.874814141223802</v>
       </c>
       <c r="C252" t="s">
         <v>23</v>
@@ -3219,7 +3219,7 @@
         <v>3</v>
       </c>
       <c r="B253" t="n">
-        <v>1063.64712580988</v>
+        <v>1063.64713367548</v>
       </c>
       <c r="C253" t="s">
         <v>23</v>
@@ -3263,7 +3263,7 @@
         <v>6</v>
       </c>
       <c r="B257" t="n">
-        <v>1572.93834827515</v>
+        <v>1572.93832451199</v>
       </c>
       <c r="C257" t="s">
         <v>23</v>
@@ -3274,7 +3274,7 @@
         <v>6</v>
       </c>
       <c r="B258" t="n">
-        <v>0.945910065650007</v>
+        <v>0.945910067151473</v>
       </c>
       <c r="C258" t="s">
         <v>23</v>
@@ -3285,7 +3285,7 @@
         <v>6</v>
       </c>
       <c r="B259" t="n">
-        <v>983.222549354204</v>
+        <v>983.222531293456</v>
       </c>
       <c r="C259" t="s">
         <v>23</v>
@@ -3362,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="B266" t="n">
-        <v>2140.51693587086</v>
+        <v>2123.67447433579</v>
       </c>
       <c r="C266" t="s">
         <v>23</v>
@@ -3373,7 +3373,7 @@
         <v>9</v>
       </c>
       <c r="B267" t="n">
-        <v>0.90222864247946</v>
+        <v>0.903820624712288</v>
       </c>
       <c r="C267" t="s">
         <v>23</v>
@@ -3384,7 +3384,7 @@
         <v>9</v>
       </c>
       <c r="B268" t="n">
-        <v>1152.93243989834</v>
+        <v>1142.05933661595</v>
       </c>
       <c r="C268" t="s">
         <v>23</v>
@@ -3395,7 +3395,7 @@
         <v>3</v>
       </c>
       <c r="B269" t="n">
-        <v>2259.64143998998</v>
+        <v>2259.64142782003</v>
       </c>
       <c r="C269" t="s">
         <v>24</v>
@@ -3406,7 +3406,7 @@
         <v>3</v>
       </c>
       <c r="B270" t="n">
-        <v>0.911458657613156</v>
+        <v>0.911458658399613</v>
       </c>
       <c r="C270" t="s">
         <v>24</v>
@@ -3417,7 +3417,7 @@
         <v>3</v>
       </c>
       <c r="B271" t="n">
-        <v>1476.14793056224</v>
+        <v>1476.14792526567</v>
       </c>
       <c r="C271" t="s">
         <v>24</v>
@@ -3461,7 +3461,7 @@
         <v>6</v>
       </c>
       <c r="B275" t="n">
-        <v>785.590898657585</v>
+        <v>785.590892442956</v>
       </c>
       <c r="C275" t="s">
         <v>24</v>
@@ -3472,7 +3472,7 @@
         <v>6</v>
       </c>
       <c r="B276" t="n">
-        <v>0.977911406967098</v>
+        <v>0.977911407362528</v>
       </c>
       <c r="C276" t="s">
         <v>24</v>
@@ -3483,7 +3483,7 @@
         <v>6</v>
       </c>
       <c r="B277" t="n">
-        <v>630.184217985215</v>
+        <v>630.184208675186</v>
       </c>
       <c r="C277" t="s">
         <v>24</v>
@@ -3560,7 +3560,7 @@
         <v>9</v>
       </c>
       <c r="B284" t="n">
-        <v>1540.81364022609</v>
+        <v>1539.8555235489</v>
       </c>
       <c r="C284" t="s">
         <v>24</v>
@@ -3571,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="B285" t="n">
-        <v>0.933574237034566</v>
+        <v>0.934031202936526</v>
       </c>
       <c r="C285" t="s">
         <v>24</v>
@@ -3582,7 +3582,7 @@
         <v>9</v>
       </c>
       <c r="B286" t="n">
-        <v>1047.27678594763</v>
+        <v>1044.15713161335</v>
       </c>
       <c r="C286" t="s">
         <v>24</v>
@@ -3637,7 +3637,7 @@
         <v>5</v>
       </c>
       <c r="B291" t="n">
-        <v>0.0393851601855875</v>
+        <v>0.0393851601855876</v>
       </c>
       <c r="C291" t="s">
         <v>25</v>
@@ -3659,7 +3659,7 @@
         <v>6</v>
       </c>
       <c r="B293" t="n">
-        <v>4154.89283721137</v>
+        <v>4154.89144063611</v>
       </c>
       <c r="C293" t="s">
         <v>25</v>
@@ -3670,7 +3670,7 @@
         <v>6</v>
       </c>
       <c r="B294" t="n">
-        <v>0.969743656265342</v>
+        <v>0.969743682011768</v>
       </c>
       <c r="C294" t="s">
         <v>25</v>
@@ -3681,7 +3681,7 @@
         <v>6</v>
       </c>
       <c r="B295" t="n">
-        <v>3242.64187660759</v>
+        <v>3242.6372375226</v>
       </c>
       <c r="C295" t="s">
         <v>25</v>
@@ -3758,7 +3758,7 @@
         <v>9</v>
       </c>
       <c r="B302" t="n">
-        <v>5148.50274527318</v>
+        <v>5220.06707096243</v>
       </c>
       <c r="C302" t="s">
         <v>25</v>
@@ -3769,7 +3769,7 @@
         <v>9</v>
       </c>
       <c r="B303" t="n">
-        <v>0.954662955000216</v>
+        <v>0.95340471900404</v>
       </c>
       <c r="C303" t="s">
         <v>25</v>
@@ -3780,7 +3780,7 @@
         <v>9</v>
       </c>
       <c r="B304" t="n">
-        <v>3590.42598580729</v>
+        <v>3611.10952301855</v>
       </c>
       <c r="C304" t="s">
         <v>25</v>
@@ -3857,7 +3857,7 @@
         <v>6</v>
       </c>
       <c r="B311" t="n">
-        <v>382.660215247792</v>
+        <v>382.660224598316</v>
       </c>
       <c r="C311" t="s">
         <v>26</v>
@@ -3868,7 +3868,7 @@
         <v>6</v>
       </c>
       <c r="B312" t="n">
-        <v>0.931725733186839</v>
+        <v>0.93172572796229</v>
       </c>
       <c r="C312" t="s">
         <v>26</v>
@@ -3879,7 +3879,7 @@
         <v>6</v>
       </c>
       <c r="B313" t="n">
-        <v>318.916043416065</v>
+        <v>318.916049295859</v>
       </c>
       <c r="C313" t="s">
         <v>26</v>
@@ -3956,7 +3956,7 @@
         <v>9</v>
       </c>
       <c r="B320" t="n">
-        <v>288.298021494018</v>
+        <v>294.089622958199</v>
       </c>
       <c r="C320" t="s">
         <v>26</v>
@@ -3967,7 +3967,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="n">
-        <v>0.962976486722119</v>
+        <v>0.961410883963153</v>
       </c>
       <c r="C321" t="s">
         <v>26</v>
@@ -3978,7 +3978,7 @@
         <v>9</v>
       </c>
       <c r="B322" t="n">
-        <v>239.324407800383</v>
+        <v>242.774057306112</v>
       </c>
       <c r="C322" t="s">
         <v>26</v>
@@ -4033,7 +4033,7 @@
         <v>5</v>
       </c>
       <c r="B327" t="n">
-        <v>0.0714840205417237</v>
+        <v>0.0714840205417238</v>
       </c>
       <c r="C327" t="s">
         <v>27</v>
@@ -4055,7 +4055,7 @@
         <v>6</v>
       </c>
       <c r="B329" t="n">
-        <v>3780.03807641401</v>
+        <v>3780.03807639655</v>
       </c>
       <c r="C329" t="s">
         <v>27</v>
@@ -4066,7 +4066,7 @@
         <v>6</v>
       </c>
       <c r="B330" t="n">
-        <v>0.852981089311857</v>
+        <v>0.852981089312867</v>
       </c>
       <c r="C330" t="s">
         <v>27</v>
@@ -4077,7 +4077,7 @@
         <v>6</v>
       </c>
       <c r="B331" t="n">
-        <v>2870.13957319096</v>
+        <v>2870.13957318426</v>
       </c>
       <c r="C331" t="s">
         <v>27</v>
@@ -4088,7 +4088,7 @@
         <v>7</v>
       </c>
       <c r="B332" t="n">
-        <v>3953.84275471594</v>
+        <v>3953.84275471527</v>
       </c>
       <c r="C332" t="s">
         <v>27</v>
@@ -4099,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="B333" t="n">
-        <v>0.832418882340594</v>
+        <v>0.83241888234059</v>
       </c>
       <c r="C333" t="s">
         <v>27</v>
@@ -4110,7 +4110,7 @@
         <v>7</v>
       </c>
       <c r="B334" t="n">
-        <v>2484.3556871432</v>
+        <v>2484.35568714052</v>
       </c>
       <c r="C334" t="s">
         <v>27</v>
@@ -4154,7 +4154,7 @@
         <v>9</v>
       </c>
       <c r="B338" t="n">
-        <v>4670.82836573042</v>
+        <v>4655.14698360716</v>
       </c>
       <c r="C338" t="s">
         <v>27</v>
@@ -4165,7 +4165,7 @@
         <v>9</v>
       </c>
       <c r="B339" t="n">
-        <v>0.771574206891221</v>
+        <v>0.773100335280711</v>
       </c>
       <c r="C339" t="s">
         <v>27</v>
@@ -4176,7 +4176,7 @@
         <v>9</v>
       </c>
       <c r="B340" t="n">
-        <v>2995.38202750462</v>
+        <v>2970.09572854702</v>
       </c>
       <c r="C340" t="s">
         <v>27</v>
@@ -4229,7 +4229,7 @@
         <v>5</v>
       </c>
       <c r="B345" t="n">
-        <v>0.0920346658748331</v>
+        <v>0.0920346658748332</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -4251,7 +4251,7 @@
         <v>6</v>
       </c>
       <c r="B347" t="n">
-        <v>9354.07873250467</v>
+        <v>9354.07417229143</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -4262,7 +4262,7 @@
         <v>6</v>
       </c>
       <c r="B348" t="n">
-        <v>0.987297574768445</v>
+        <v>0.987297587080386</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="B349" t="n">
-        <v>7314.3715743048</v>
+        <v>7314.37012155832</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -4394,7 +4394,7 @@
         <v>5</v>
       </c>
       <c r="B360" t="n">
-        <v>0.0212445786399693</v>
+        <v>0.0212445786399692</v>
       </c>
       <c r="C360" t="s">
         <v>29</v>
@@ -4416,7 +4416,7 @@
         <v>6</v>
       </c>
       <c r="B362" t="n">
-        <v>459.759032778061</v>
+        <v>459.759039874483</v>
       </c>
       <c r="C362" t="s">
         <v>29</v>
@@ -4427,7 +4427,7 @@
         <v>6</v>
       </c>
       <c r="B363" t="n">
-        <v>0.850066486178015</v>
+        <v>0.850066481321498</v>
       </c>
       <c r="C363" t="s">
         <v>29</v>
@@ -4438,7 +4438,7 @@
         <v>6</v>
       </c>
       <c r="B364" t="n">
-        <v>389.165287525746</v>
+        <v>389.165296046249</v>
       </c>
       <c r="C364" t="s">
         <v>29</v>
@@ -4515,7 +4515,7 @@
         <v>9</v>
       </c>
       <c r="B371" t="n">
-        <v>348.097457264998</v>
+        <v>347.580853649889</v>
       </c>
       <c r="C371" t="s">
         <v>29</v>
@@ -4526,7 +4526,7 @@
         <v>9</v>
       </c>
       <c r="B372" t="n">
-        <v>0.914965888171932</v>
+        <v>0.915094356872186</v>
       </c>
       <c r="C372" t="s">
         <v>29</v>
@@ -4537,7 +4537,7 @@
         <v>9</v>
       </c>
       <c r="B373" t="n">
-        <v>282.88457330997</v>
+        <v>282.699617534776</v>
       </c>
       <c r="C373" t="s">
         <v>29</v>
@@ -4768,7 +4768,7 @@
         <v>5</v>
       </c>
       <c r="B394" t="n">
-        <v>81.0904276649278</v>
+        <v>81.0904276649279</v>
       </c>
       <c r="C394" t="s">
         <v>31</v>
@@ -4779,7 +4779,7 @@
         <v>6</v>
       </c>
       <c r="B395" t="n">
-        <v>76.698864144906</v>
+        <v>76.6988378461349</v>
       </c>
       <c r="C395" t="s">
         <v>31</v>
@@ -4790,7 +4790,7 @@
         <v>6</v>
       </c>
       <c r="B396" t="n">
-        <v>0.804850298977946</v>
+        <v>0.804850364092562</v>
       </c>
       <c r="C396" t="s">
         <v>31</v>
@@ -4801,7 +4801,7 @@
         <v>6</v>
       </c>
       <c r="B397" t="n">
-        <v>53.8642626527183</v>
+        <v>53.8642154609547</v>
       </c>
       <c r="C397" t="s">
         <v>31</v>
@@ -4878,7 +4878,7 @@
         <v>9</v>
       </c>
       <c r="B404" t="n">
-        <v>117.661625075055</v>
+        <v>117.393706782777</v>
       </c>
       <c r="C404" t="s">
         <v>31</v>
@@ -4889,7 +4889,7 @@
         <v>9</v>
       </c>
       <c r="B405" t="n">
-        <v>0.411006510655285</v>
+        <v>0.413674038633483</v>
       </c>
       <c r="C405" t="s">
         <v>31</v>
@@ -4900,7 +4900,7 @@
         <v>9</v>
       </c>
       <c r="B406" t="n">
-        <v>73.4088012336635</v>
+        <v>72.5612864221335</v>
       </c>
       <c r="C406" t="s">
         <v>31</v>
@@ -4977,7 +4977,7 @@
         <v>6</v>
       </c>
       <c r="B413" t="n">
-        <v>21.2578048162586</v>
+        <v>21.2578048162597</v>
       </c>
       <c r="C413" t="s">
         <v>32</v>
@@ -4988,7 +4988,7 @@
         <v>6</v>
       </c>
       <c r="B414" t="n">
-        <v>0.916975583246568</v>
+        <v>0.916975583246609</v>
       </c>
       <c r="C414" t="s">
         <v>32</v>
@@ -4999,7 +4999,7 @@
         <v>6</v>
       </c>
       <c r="B415" t="n">
-        <v>17.0484953348441</v>
+        <v>17.0484953348356</v>
       </c>
       <c r="C415" t="s">
         <v>32</v>
@@ -5010,7 +5010,7 @@
         <v>7</v>
       </c>
       <c r="B416" t="n">
-        <v>25.9766323896901</v>
+        <v>25.9766323896839</v>
       </c>
       <c r="C416" t="s">
         <v>32</v>
@@ -5021,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="B417" t="n">
-        <v>0.903280510180274</v>
+        <v>0.903280510180284</v>
       </c>
       <c r="C417" t="s">
         <v>32</v>
@@ -5032,7 +5032,7 @@
         <v>7</v>
       </c>
       <c r="B418" t="n">
-        <v>18.918927422941</v>
+        <v>18.9189274229505</v>
       </c>
       <c r="C418" t="s">
         <v>32</v>
@@ -5076,7 +5076,7 @@
         <v>9</v>
       </c>
       <c r="B422" t="n">
-        <v>25.3623287650341</v>
+        <v>25.8021256095267</v>
       </c>
       <c r="C422" t="s">
         <v>32</v>
@@ -5087,7 +5087,7 @@
         <v>9</v>
       </c>
       <c r="B423" t="n">
-        <v>0.885761269520044</v>
+        <v>0.881516423866461</v>
       </c>
       <c r="C423" t="s">
         <v>32</v>
@@ -5098,7 +5098,7 @@
         <v>9</v>
       </c>
       <c r="B424" t="n">
-        <v>19.9786966247918</v>
+        <v>20.1612743209834</v>
       </c>
       <c r="C424" t="s">
         <v>32</v>

--- a/outcome/model_select_flu.xlsx
+++ b/outcome/model_select_flu.xlsx
@@ -1,129 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kanggle-my.sharepoint.com/personal/phonedata_kanggle_onmicrosoft_com/Documents/XMU/likangguo/2022/OK 11 COVID_impact_luoli/code/outcome/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_ABAA72291DE16DA756A53C4E5F7A0EC4EAD94F12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64499F66-6B00-4189-9B74-EDF66BA536F1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="33">
   <si>
-    <t xml:space="preserve">Method</t>
+    <t>Method</t>
   </si>
   <si>
-    <t xml:space="preserve">Train</t>
+    <t>Train</t>
   </si>
   <si>
-    <t xml:space="preserve">disease</t>
+    <t>disease</t>
   </si>
   <si>
-    <t xml:space="preserve">SARIMA</t>
+    <t>SARIMA</t>
   </si>
   <si>
-    <t xml:space="preserve">Pertussis</t>
+    <t>Pertussis</t>
   </si>
   <si>
-    <t xml:space="preserve">Grey Model</t>
+    <t>Grey Model</t>
   </si>
   <si>
-    <t xml:space="preserve">Neural Network</t>
+    <t>Neural Network</t>
   </si>
   <si>
-    <t xml:space="preserve">STL</t>
+    <t>STL</t>
   </si>
   <si>
-    <t xml:space="preserve">ETS</t>
+    <t>ETS</t>
   </si>
   <si>
-    <t xml:space="preserve">Hybrid</t>
+    <t>Hybrid</t>
   </si>
   <si>
-    <t xml:space="preserve">HCV</t>
+    <t>HCV</t>
   </si>
   <si>
-    <t xml:space="preserve">HEV</t>
+    <t>HEV</t>
   </si>
   <si>
-    <t xml:space="preserve">Brucellosis</t>
+    <t>Brucellosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Dengue fever</t>
+    <t>Dengue fever</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuberculosis</t>
+    <t>Tuberculosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Rubella</t>
+    <t>Rubella</t>
   </si>
   <si>
-    <t xml:space="preserve">Acute hemorrhagic conjunctivitis</t>
+    <t>Acute hemorrhagic conjunctivitis</t>
   </si>
   <si>
-    <t xml:space="preserve">HAV</t>
+    <t>HAV</t>
   </si>
   <si>
-    <t xml:space="preserve">Dysentery</t>
+    <t>Dysentery</t>
   </si>
   <si>
-    <t xml:space="preserve">Gonorrhea</t>
+    <t>Gonorrhea</t>
   </si>
   <si>
-    <t xml:space="preserve">HFRS</t>
+    <t>HFRS</t>
   </si>
   <si>
-    <t xml:space="preserve">AIDS</t>
+    <t>AIDS</t>
   </si>
   <si>
-    <t xml:space="preserve">Mumps</t>
+    <t>Mumps</t>
   </si>
   <si>
-    <t xml:space="preserve">Syphilis</t>
+    <t>Syphilis</t>
   </si>
   <si>
-    <t xml:space="preserve">Malaria</t>
+    <t>Malaria</t>
   </si>
   <si>
-    <t xml:space="preserve">Other infectious diarrhea</t>
+    <t>Other infectious diarrhea</t>
   </si>
   <si>
-    <t xml:space="preserve">Typhoid fever and paratyphoid fever</t>
+    <t>Typhoid fever and paratyphoid fever</t>
   </si>
   <si>
-    <t xml:space="preserve">HBV</t>
+    <t>HBV</t>
   </si>
   <si>
-    <t xml:space="preserve">HFMD</t>
+    <t>HFMD</t>
   </si>
   <si>
-    <t xml:space="preserve">Scarlet fever</t>
+    <t>Scarlet fever</t>
   </si>
   <si>
-    <t xml:space="preserve">Japanese encephalitis</t>
+    <t>Japanese encephalitis</t>
   </si>
   <si>
-    <t xml:space="preserve">Hydatidosis</t>
+    <t>Hydatidosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Typhus</t>
+    <t>Typhus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -151,9 +165,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -435,14 +458,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C424"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,4659 +482,4659 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>30.767055634693</v>
+      <c r="B2">
+        <v>30.767055634693001</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.92802603941414</v>
+      <c r="B3">
+        <v>0.92802603941413997</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>20.5990301378923</v>
+      <c r="B4">
+        <v>20.599030137892299</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>103.417713728414</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.120016046964556</v>
+      <c r="B6">
+        <v>0.12001604696455601</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>90.1706529492856</v>
+      <c r="B7">
+        <v>90.170652949285596</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>34.2097753106345</v>
+      <c r="B8">
+        <v>34.209775310634498</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.907301958131851</v>
+      <c r="B9">
+        <v>0.90730195813185099</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>23.1405049886204</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="n">
-        <v>24.2279700500788</v>
+      <c r="B11">
+        <v>24.227970050078799</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="n">
-        <v>0.953025679307941</v>
+      <c r="B12">
+        <v>0.95302567930794102</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="n">
-        <v>18.8819380277792</v>
+      <c r="B13">
+        <v>18.881938027779199</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="n">
-        <v>25.7059599954946</v>
+      <c r="B14">
+        <v>25.705959995494599</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.950749317780341</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>20.4152858510854</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="n">
-        <v>27.0323003202345</v>
+      <c r="B17">
+        <v>27.032300320234501</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.94566734892578</v>
+      <c r="B18">
+        <v>0.94566734892577997</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="n">
-        <v>21.2933060606781</v>
+      <c r="B19">
+        <v>21.293306060678098</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" t="n">
-        <v>670.752045555708</v>
+      <c r="B20">
+        <v>670.75204555570804</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" t="n">
-        <v>0.859352169374664</v>
+      <c r="B21">
+        <v>0.85935216937466397</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" t="n">
-        <v>403.565767553226</v>
+      <c r="B22">
+        <v>403.56576755322601</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" t="n">
-        <v>832.84584739183</v>
+      <c r="B23">
+        <v>832.84584739183003</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.778140401205899</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" t="n">
-        <v>691.493229010053</v>
+      <c r="B25">
+        <v>691.49322901005303</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" t="n">
-        <v>573.122386202039</v>
+      <c r="B26">
+        <v>573.12238620203902</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="n">
-        <v>0.831787490164117</v>
+      <c r="B27">
+        <v>0.83178749016411702</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>433.565037488766</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B29" t="n">
-        <v>497.292744291407</v>
+      <c r="B29">
+        <v>497.29274429140702</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" t="n">
-        <v>0.920952680574345</v>
+      <c r="B30">
+        <v>0.92095268057434498</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>326.038245484269</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
-      <c r="B32" t="n">
-        <v>858.25808301674</v>
+      <c r="B32">
+        <v>858.25808301673999</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
-      <c r="B33" t="n">
-        <v>0.772070906147734</v>
+      <c r="B33">
+        <v>0.77207090614773399</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B34" t="n">
-        <v>709.819751058596</v>
+      <c r="B34">
+        <v>709.81975105859601</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" t="n">
-        <v>631.225807592306</v>
+      <c r="B35">
+        <v>631.22580759230596</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" t="n">
-        <v>0.798915801974838</v>
+      <c r="B36">
+        <v>0.79891580197483802</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" t="n">
-        <v>478.573982588119</v>
+      <c r="B37">
+        <v>478.57398258811901</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>130.319635270514</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="B39" t="n">
-        <v>0.93985138940065</v>
+      <c r="B39">
+        <v>0.93985138940065005</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
-      <c r="B40" t="n">
-        <v>80.9094336977349</v>
+      <c r="B40">
+        <v>80.909433697734897</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
-      <c r="B41" t="n">
-        <v>527.26731390254</v>
+      <c r="B41">
+        <v>527.26731390253997</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B42" t="n">
-        <v>0.00152285267022865</v>
+      <c r="B42">
+        <v>1.52285267022865E-3</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
-      <c r="B43" t="n">
-        <v>450.465238372579</v>
+      <c r="B43">
+        <v>450.46523837257899</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B44" t="n">
-        <v>161.561328429123</v>
+      <c r="B44">
+        <v>161.56132842912299</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="B45" t="n">
-        <v>0.904475003973589</v>
+      <c r="B45">
+        <v>0.90447500397358904</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>114.974623071159</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
-      <c r="B47" t="n">
-        <v>133.81727327389</v>
+      <c r="B47">
+        <v>133.81727327389001</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
-      <c r="B48" t="n">
-        <v>0.936600114072186</v>
+      <c r="B48">
+        <v>0.93660011407218602</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
-      <c r="B49" t="n">
-        <v>92.1170495985736</v>
+      <c r="B49">
+        <v>92.117049598573601</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>132.16314145299</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
-      <c r="B51" t="n">
-        <v>0.939761524165847</v>
+      <c r="B51">
+        <v>0.93976152416584702</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
-      <c r="B52" t="n">
-        <v>97.7462146935804</v>
+      <c r="B52">
+        <v>97.746214693580399</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
-      <c r="B53" t="n">
-        <v>128.795065829069</v>
+      <c r="B53">
+        <v>128.79506582906899</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
-      <c r="B54" t="n">
-        <v>0.93915441710261</v>
+      <c r="B54">
+        <v>0.93915441710261005</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
-      <c r="B55" t="n">
-        <v>91.6258582092352</v>
+      <c r="B55">
+        <v>91.625858209235204</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>171.429828119056</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>0.975919338800464</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>111.919861788367</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>1040.52604843422</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>0.102738052235509</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
-      <c r="B61" t="n">
-        <v>883.258013575668</v>
+      <c r="B61">
+        <v>883.25801357566797</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>192.340394525465</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
-      <c r="B63" t="n">
-        <v>0.971721274114225</v>
+      <c r="B63">
+        <v>0.97172127411422504</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>142.394181695984</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
-      <c r="B65" t="n">
-        <v>94.3751264264973</v>
+      <c r="B65">
+        <v>94.375126426497303</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
-      <c r="B66" t="n">
-        <v>0.992716893664449</v>
+      <c r="B66">
+        <v>0.99271689366444904</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
-      <c r="B67" t="n">
-        <v>67.1374220922035</v>
+      <c r="B67">
+        <v>67.137422092203494</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>118.778114252856</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>0.988961739392203</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
-      <c r="B70" t="n">
-        <v>84.5782320252383</v>
+      <c r="B70">
+        <v>84.578232025238293</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
-      <c r="B71" t="n">
-        <v>121.197250531524</v>
+      <c r="B71">
+        <v>121.19725053152401</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
-      <c r="B72" t="n">
-        <v>0.989302273278416</v>
+      <c r="B72">
+        <v>0.98930227327841602</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
-      <c r="B73" t="n">
-        <v>99.1108407077058</v>
+      <c r="B73">
+        <v>99.110840707705805</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
-      <c r="B74" t="n">
-        <v>61.0293605803846</v>
+      <c r="B74">
+        <v>61.029360580384598</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
-      <c r="B75" t="n">
-        <v>0.717073797340946</v>
+      <c r="B75">
+        <v>0.71707379734094601</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>31.1422603848169</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
-      <c r="B77" t="n">
-        <v>92.9911112078604</v>
+      <c r="B77">
+        <v>92.991111207860399</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
-      <c r="B78" t="n">
-        <v>0.0646986166167762</v>
+      <c r="B78">
+        <v>6.46986166167762E-2</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
-      <c r="B79" t="n">
-        <v>60.7384937293974</v>
+      <c r="B79">
+        <v>60.738493729397398</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
-      <c r="B80" t="n">
-        <v>5.61054881756849</v>
+      <c r="B80">
+        <v>5.6105488175684899</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
-      <c r="B81" t="n">
-        <v>0.991215419053279</v>
+      <c r="B81">
+        <v>0.99121541905327903</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>3.81949236839968</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
-      <c r="B83" t="n">
-        <v>82.5924898851867</v>
+      <c r="B83">
+        <v>82.592489885186694</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
-      <c r="B84" t="n">
-        <v>0.397502060300895</v>
+      <c r="B84">
+        <v>0.39750206030089502</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
-      <c r="B85" t="n">
-        <v>40.4901110398267</v>
+      <c r="B85">
+        <v>40.490111039826701</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
-      <c r="B86" t="n">
-        <v>34.0435145199254</v>
+      <c r="B86">
+        <v>34.043514519925402</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
-      <c r="B87" t="n">
-        <v>0.696729225046515</v>
+      <c r="B87">
+        <v>0.69672922504651502</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
-      <c r="B88" t="n">
-        <v>18.3250329687452</v>
+      <c r="B88">
+        <v>18.325032968745202</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>25601.5134435244</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
-      <c r="B90" t="n">
-        <v>0.845324591708111</v>
+      <c r="B90">
+        <v>0.84532459170811103</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3</v>
       </c>
-      <c r="B91" t="n">
-        <v>9971.65533082608</v>
+      <c r="B91">
+        <v>9971.6553308260809</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
-      <c r="B92" t="n">
-        <v>36247.5548853958</v>
+      <c r="B92">
+        <v>36247.554885395803</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
-      <c r="B93" t="n">
-        <v>0.608751386023606</v>
+      <c r="B93">
+        <v>0.60875138602360601</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
-      <c r="B94" t="n">
-        <v>27324.9787165996</v>
+      <c r="B94">
+        <v>27324.978716599599</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>21487.4802462478</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
-      <c r="B96" t="n">
-        <v>0.858175427094907</v>
+      <c r="B96">
+        <v>0.85817542709490702</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
-      <c r="B97" t="n">
-        <v>12669.0009618102</v>
+      <c r="B97">
+        <v>12669.000961810199</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
-      <c r="B98" t="n">
-        <v>17428.2298034711</v>
+      <c r="B98">
+        <v>17428.229803471098</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
-      <c r="B99" t="n">
-        <v>0.912724202395343</v>
+      <c r="B99">
+        <v>0.91272420239534302</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
-      <c r="B100" t="n">
-        <v>7174.04295106801</v>
+      <c r="B100">
+        <v>7174.0429510680096</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
-      <c r="B101" t="n">
-        <v>18801.8016468105</v>
+      <c r="B101">
+        <v>18801.801646810502</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
-      <c r="B102" t="n">
-        <v>0.898226119505517</v>
+      <c r="B102">
+        <v>0.89822611950551701</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
-      <c r="B103" t="n">
-        <v>7091.21727204652</v>
+      <c r="B103">
+        <v>7091.2172720465196</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>9</v>
       </c>
-      <c r="B104" t="n">
-        <v>21125.597135113</v>
+      <c r="B104">
+        <v>21125.597135112999</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
-      <c r="B105" t="n">
-        <v>0.86767572453771</v>
+      <c r="B105">
+        <v>0.86767572453771002</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
-      <c r="B106" t="n">
-        <v>9872.0450651367</v>
+      <c r="B106">
+        <v>9872.0450651366991</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>3479.01031155078</v>
       </c>
       <c r="C107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3</v>
       </c>
-      <c r="B108" t="n">
-        <v>0.833845506698121</v>
+      <c r="B108">
+        <v>0.83384550669812096</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
-      <c r="B109" t="n">
-        <v>1786.79005222234</v>
+      <c r="B109">
+        <v>1786.7900522223399</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
-      <c r="B110" t="n">
-        <v>8280.07794455061</v>
+      <c r="B110">
+        <v>8280.0779445506105</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
-      <c r="B111" t="n">
-        <v>0.0422358850097075</v>
+      <c r="B111">
+        <v>4.2235885009707499E-2</v>
       </c>
       <c r="C111" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
-      <c r="B112" t="n">
-        <v>6147.86577478724</v>
+      <c r="B112">
+        <v>6147.8657747872403</v>
       </c>
       <c r="C112" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>6</v>
       </c>
-      <c r="B113" t="n">
-        <v>1642.74579822414</v>
+      <c r="B113">
+        <v>1642.7457982241399</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>6</v>
       </c>
-      <c r="B114" t="n">
-        <v>0.970734035465704</v>
+      <c r="B114">
+        <v>0.97073403546570403</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>1201.84543533327</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
-      <c r="B116" t="n">
-        <v>1903.20752445081</v>
+      <c r="B116">
+        <v>1903.2075244508101</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
-      <c r="B117" t="n">
-        <v>0.957542439395449</v>
+      <c r="B117">
+        <v>0.95754243939544903</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
-      <c r="B118" t="n">
-        <v>948.946078066</v>
+      <c r="B118">
+        <v>948.94607806600004</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
-      <c r="B119" t="n">
-        <v>1694.62593483074</v>
+      <c r="B119">
+        <v>1694.6259348307401</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
-      <c r="B120" t="n">
-        <v>0.961155523988067</v>
+      <c r="B120">
+        <v>0.96115552398806703</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>8</v>
       </c>
-      <c r="B121" t="n">
-        <v>936.298410690206</v>
+      <c r="B121">
+        <v>936.29841069020597</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>9</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>2344.55733191219</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>9</v>
       </c>
-      <c r="B123" t="n">
-        <v>0.94326878954529</v>
+      <c r="B123">
+        <v>0.94326878954529003</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>9</v>
       </c>
-      <c r="B124" t="n">
-        <v>1375.11760779077</v>
+      <c r="B124">
+        <v>1375.1176077907701</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>6667.72715717542</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>3</v>
       </c>
-      <c r="B126" t="n">
-        <v>0.137173574768835</v>
+      <c r="B126">
+        <v>0.13717357476883499</v>
       </c>
       <c r="C126" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>3</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>2880.58107593364</v>
       </c>
       <c r="C127" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
-      <c r="B128" t="n">
-        <v>7162.26873349611</v>
+      <c r="B128">
+        <v>7162.2687334961101</v>
       </c>
       <c r="C128" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
-      <c r="B129" t="n">
-        <v>0.00387096149904507</v>
+      <c r="B129">
+        <v>3.87096149904507E-3</v>
       </c>
       <c r="C129" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>3155.08628961981</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>6</v>
       </c>
-      <c r="B131" t="n">
-        <v>3059.81459306863</v>
+      <c r="B131">
+        <v>3059.8145930686301</v>
       </c>
       <c r="C131" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
-      <c r="B132" t="n">
-        <v>0.882142085497737</v>
+      <c r="B132">
+        <v>0.88214208549773698</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>6</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>1503.42537771351</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
-      <c r="B134" t="n">
-        <v>1844.24248896382</v>
+      <c r="B134">
+        <v>1844.2424889638201</v>
       </c>
       <c r="C134" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>0.959827064399841</v>
       </c>
       <c r="C135" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
-      <c r="B136" t="n">
-        <v>744.809161437221</v>
+      <c r="B136">
+        <v>744.80916143722095</v>
       </c>
       <c r="C136" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>8</v>
       </c>
-      <c r="B137" t="n">
-        <v>1634.54202201732</v>
+      <c r="B137">
+        <v>1634.5420220173201</v>
       </c>
       <c r="C137" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>8</v>
       </c>
-      <c r="B138" t="n">
-        <v>0.966296741519298</v>
+      <c r="B138">
+        <v>0.96629674151929801</v>
       </c>
       <c r="C138" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
-      <c r="B139" t="n">
-        <v>760.788343665398</v>
+      <c r="B139">
+        <v>760.78834366539797</v>
       </c>
       <c r="C139" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>9</v>
       </c>
-      <c r="B140" t="n">
-        <v>4244.50515628588</v>
+      <c r="B140">
+        <v>4244.5051562858798</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
-      <c r="B141" t="n">
-        <v>0.847404092492997</v>
+      <c r="B141">
+        <v>0.84740409249299697</v>
       </c>
       <c r="C141" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>9</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>1804.17835928148</v>
       </c>
       <c r="C142" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>3</v>
       </c>
-      <c r="B143" t="n">
-        <v>572.516694127001</v>
+      <c r="B143">
+        <v>572.51669412700096</v>
       </c>
       <c r="C143" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>3</v>
       </c>
-      <c r="B144" t="n">
-        <v>0.821399375572235</v>
+      <c r="B144">
+        <v>0.82139937557223497</v>
       </c>
       <c r="C144" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>3</v>
       </c>
-      <c r="B145" t="n">
-        <v>366.669933796268</v>
+      <c r="B145">
+        <v>366.66993379626803</v>
       </c>
       <c r="C145" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>1017.60946794798</v>
       </c>
       <c r="C146" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
-      <c r="B147" t="n">
-        <v>0.285205289187865</v>
+      <c r="B147">
+        <v>0.28520528918786497</v>
       </c>
       <c r="C147" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
-      <c r="B148" t="n">
-        <v>796.418414227301</v>
+      <c r="B148">
+        <v>796.41841422730101</v>
       </c>
       <c r="C148" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
-      <c r="B149" t="n">
-        <v>578.77052406819</v>
+      <c r="B149">
+        <v>578.77052406818996</v>
       </c>
       <c r="C149" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>0.823318882134915</v>
       </c>
       <c r="C150" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
-      <c r="B151" t="n">
-        <v>455.727051163698</v>
+      <c r="B151">
+        <v>455.72705116369798</v>
       </c>
       <c r="C151" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
-      <c r="B152" t="n">
-        <v>363.681666345383</v>
+      <c r="B152">
+        <v>363.68166634538301</v>
       </c>
       <c r="C152" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
-      <c r="B153" t="n">
-        <v>0.909558012462882</v>
+      <c r="B153">
+        <v>0.90955801246288204</v>
       </c>
       <c r="C153" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
-      <c r="B154" t="n">
-        <v>299.686179759799</v>
+      <c r="B154">
+        <v>299.68617975979902</v>
       </c>
       <c r="C154" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>8</v>
       </c>
-      <c r="B155" t="n">
-        <v>399.707583303416</v>
+      <c r="B155">
+        <v>399.70758330341602</v>
       </c>
       <c r="C155" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>8</v>
       </c>
-      <c r="B156" t="n">
-        <v>0.891837181153573</v>
+      <c r="B156">
+        <v>0.89183718115357302</v>
       </c>
       <c r="C156" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>8</v>
       </c>
-      <c r="B157" t="n">
-        <v>319.543424385444</v>
+      <c r="B157">
+        <v>319.54342438544398</v>
       </c>
       <c r="C157" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>9</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>439.551599682622</v>
       </c>
       <c r="C158" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>9</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>0.899721718056394</v>
       </c>
       <c r="C159" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>9</v>
       </c>
-      <c r="B160" t="n">
-        <v>361.125442113413</v>
+      <c r="B160">
+        <v>361.12544211341299</v>
       </c>
       <c r="C160" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>3</v>
       </c>
-      <c r="B161" t="n">
-        <v>8022.96888784691</v>
+      <c r="B161">
+        <v>8022.9688878469096</v>
       </c>
       <c r="C161" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>3</v>
       </c>
-      <c r="B162" t="n">
-        <v>0.961550760137815</v>
+      <c r="B162">
+        <v>0.96155076013781504</v>
       </c>
       <c r="C162" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>3</v>
       </c>
-      <c r="B163" t="n">
-        <v>5036.10169726843</v>
+      <c r="B163">
+        <v>5036.1016972684301</v>
       </c>
       <c r="C163" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>5</v>
       </c>
-      <c r="B164" t="n">
-        <v>34375.249212476</v>
+      <c r="B164">
+        <v>34375.249212476003</v>
       </c>
       <c r="C164" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>0.22426175785517</v>
       </c>
       <c r="C165" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>5</v>
       </c>
-      <c r="B166" t="n">
-        <v>27369.9568892281</v>
+      <c r="B166">
+        <v>27369.956889228099</v>
       </c>
       <c r="C166" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>6</v>
       </c>
-      <c r="B167" t="n">
-        <v>4501.13410725529</v>
+      <c r="B167">
+        <v>4501.1341072552896</v>
       </c>
       <c r="C167" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
-      <c r="B168" t="n">
-        <v>0.980913353704098</v>
+      <c r="B168">
+        <v>0.98091335370409805</v>
       </c>
       <c r="C168" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
-      <c r="B169" t="n">
-        <v>3268.92594587222</v>
+      <c r="B169">
+        <v>3268.9259458722199</v>
       </c>
       <c r="C169" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>7</v>
       </c>
-      <c r="B170" t="n">
-        <v>3747.89855224276</v>
+      <c r="B170">
+        <v>3747.8985522427602</v>
       </c>
       <c r="C170" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>7</v>
       </c>
-      <c r="B171" t="n">
-        <v>0.991168098435137</v>
+      <c r="B171">
+        <v>0.99116809843513698</v>
       </c>
       <c r="C171" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
-      <c r="B172" t="n">
-        <v>2740.47612827004</v>
+      <c r="B172">
+        <v>2740.4761282700401</v>
       </c>
       <c r="C172" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>8</v>
       </c>
-      <c r="B173" t="n">
-        <v>4083.25487835823</v>
+      <c r="B173">
+        <v>4083.2548783582301</v>
       </c>
       <c r="C173" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>8</v>
       </c>
-      <c r="B174" t="n">
-        <v>0.990295635327446</v>
+      <c r="B174">
+        <v>0.99029563532744602</v>
       </c>
       <c r="C174" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>8</v>
       </c>
-      <c r="B175" t="n">
-        <v>2817.46324742192</v>
+      <c r="B175">
+        <v>2817.4632474219202</v>
       </c>
       <c r="C175" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>9</v>
       </c>
-      <c r="B176" t="n">
-        <v>4708.87863219308</v>
+      <c r="B176">
+        <v>4708.8786321930802</v>
       </c>
       <c r="C176" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>9</v>
       </c>
-      <c r="B177" t="n">
-        <v>0.98023049813511</v>
+      <c r="B177">
+        <v>0.98023049813510998</v>
       </c>
       <c r="C177" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>9</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>3785.12375511444</v>
       </c>
       <c r="C178" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>3</v>
       </c>
-      <c r="B179" t="n">
-        <v>631.83902702795</v>
+      <c r="B179">
+        <v>631.83902702795001</v>
       </c>
       <c r="C179" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>3</v>
       </c>
-      <c r="B180" t="n">
-        <v>0.854578684611089</v>
+      <c r="B180">
+        <v>0.85457868461108899</v>
       </c>
       <c r="C180" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>3</v>
       </c>
-      <c r="B181" t="n">
-        <v>391.829422027273</v>
+      <c r="B181">
+        <v>391.82942202727298</v>
       </c>
       <c r="C181" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>5</v>
       </c>
-      <c r="B182" t="n">
-        <v>1097.56865176024</v>
+      <c r="B182">
+        <v>1097.5686517602401</v>
       </c>
       <c r="C182" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>5</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>0.533600656994628</v>
       </c>
       <c r="C183" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>5</v>
       </c>
-      <c r="B184" t="n">
-        <v>842.740720116061</v>
+      <c r="B184">
+        <v>842.74072011606097</v>
       </c>
       <c r="C184" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>6</v>
       </c>
-      <c r="B185" t="n">
-        <v>361.328133706062</v>
+      <c r="B185">
+        <v>361.32813370606198</v>
       </c>
       <c r="C185" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>6</v>
       </c>
-      <c r="B186" t="n">
-        <v>0.932062215383629</v>
+      <c r="B186">
+        <v>0.93206221538362899</v>
       </c>
       <c r="C186" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>6</v>
       </c>
-      <c r="B187" t="n">
-        <v>273.327502402629</v>
+      <c r="B187">
+        <v>273.32750240262902</v>
       </c>
       <c r="C187" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
-      <c r="B188" t="n">
-        <v>445.981224857412</v>
+      <c r="B188">
+        <v>445.98122485741197</v>
       </c>
       <c r="C188" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
-      <c r="B189" t="n">
-        <v>0.9230258296181</v>
+      <c r="B189">
+        <v>0.92302582961809998</v>
       </c>
       <c r="C189" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>7</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>327.858893534782</v>
       </c>
       <c r="C190" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>8</v>
       </c>
-      <c r="B191" t="n">
-        <v>487.639790643464</v>
+      <c r="B191">
+        <v>487.63979064346398</v>
       </c>
       <c r="C191" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>8</v>
       </c>
-      <c r="B192" t="n">
-        <v>0.909800960589556</v>
+      <c r="B192">
+        <v>0.90980096058955595</v>
       </c>
       <c r="C192" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>8</v>
       </c>
-      <c r="B193" t="n">
-        <v>377.610126360715</v>
+      <c r="B193">
+        <v>377.61012636071501</v>
       </c>
       <c r="C193" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>9</v>
       </c>
-      <c r="B194" t="n">
-        <v>480.202619179841</v>
+      <c r="B194">
+        <v>480.20261917984101</v>
       </c>
       <c r="C194" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>9</v>
       </c>
-      <c r="B195" t="n">
-        <v>0.880400012838789</v>
+      <c r="B195">
+        <v>0.88040001283878899</v>
       </c>
       <c r="C195" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>9</v>
       </c>
-      <c r="B196" t="n">
-        <v>354.443134435716</v>
+      <c r="B196">
+        <v>354.44313443571599</v>
       </c>
       <c r="C196" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>3</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>88.3572631344218</v>
       </c>
       <c r="C197" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>3</v>
       </c>
-      <c r="B198" t="n">
-        <v>0.963142300999359</v>
+      <c r="B198">
+        <v>0.96314230099935905</v>
       </c>
       <c r="C198" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>3</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>59.3948771275113</v>
       </c>
       <c r="C199" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
-      <c r="B200" t="n">
-        <v>390.550223000652</v>
+      <c r="B200">
+        <v>390.55022300065201</v>
       </c>
       <c r="C200" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>5</v>
       </c>
-      <c r="B201" t="n">
-        <v>0.198212683724601</v>
+      <c r="B201">
+        <v>0.19821268372460099</v>
       </c>
       <c r="C201" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
-      <c r="B202" t="n">
-        <v>303.769556695494</v>
+      <c r="B202">
+        <v>303.76955669549397</v>
       </c>
       <c r="C202" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>6</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>103.857892017457</v>
       </c>
       <c r="C203" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>6</v>
       </c>
-      <c r="B204" t="n">
-        <v>0.918960285450638</v>
+      <c r="B204">
+        <v>0.91896028545063801</v>
       </c>
       <c r="C204" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>6</v>
       </c>
-      <c r="B205" t="n">
-        <v>83.8165285256498</v>
+      <c r="B205">
+        <v>83.816528525649801</v>
       </c>
       <c r="C205" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
-      <c r="B206" t="n">
-        <v>86.0576261160111</v>
+      <c r="B206">
+        <v>86.057626116011093</v>
       </c>
       <c r="C206" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
-      <c r="B207" t="n">
-        <v>0.970592677091443</v>
+      <c r="B207">
+        <v>0.97059267709144303</v>
       </c>
       <c r="C207" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
-      <c r="B208" t="n">
-        <v>61.7704903512122</v>
+      <c r="B208">
+        <v>61.770490351212203</v>
       </c>
       <c r="C208" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
-      <c r="B209" t="n">
-        <v>83.4576158411371</v>
+      <c r="B209">
+        <v>83.457615841137098</v>
       </c>
       <c r="C209" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>8</v>
       </c>
-      <c r="B210" t="n">
-        <v>0.967398126471707</v>
+      <c r="B210">
+        <v>0.96739812647170698</v>
       </c>
       <c r="C210" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>8</v>
       </c>
-      <c r="B211" t="n">
-        <v>61.9187390853896</v>
+      <c r="B211">
+        <v>61.918739085389603</v>
       </c>
       <c r="C211" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>9</v>
       </c>
-      <c r="B212" t="n">
-        <v>61.1417129023947</v>
+      <c r="B212">
+        <v>61.141712902394701</v>
       </c>
       <c r="C212" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>9</v>
       </c>
-      <c r="B213" t="n">
-        <v>0.972013509905399</v>
+      <c r="B213">
+        <v>0.97201350990539903</v>
       </c>
       <c r="C213" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>9</v>
       </c>
-      <c r="B214" t="n">
-        <v>48.0187795797849</v>
+      <c r="B214">
+        <v>48.018779579784898</v>
       </c>
       <c r="C214" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>3</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>108.825340469341</v>
       </c>
       <c r="C215" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>3</v>
       </c>
-      <c r="B216" t="n">
-        <v>0.845741045524089</v>
+      <c r="B216">
+        <v>0.84574104552408902</v>
       </c>
       <c r="C216" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>3</v>
       </c>
-      <c r="B217" t="n">
-        <v>68.7793105485814</v>
+      <c r="B217">
+        <v>68.779310548581407</v>
       </c>
       <c r="C217" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>5</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>235.597644129961</v>
       </c>
       <c r="C218" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>5</v>
       </c>
-      <c r="B219" t="n">
-        <v>0.258717761176283</v>
+      <c r="B219">
+        <v>0.25871776117628298</v>
       </c>
       <c r="C219" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>5</v>
       </c>
-      <c r="B220" t="n">
-        <v>187.293166417357</v>
+      <c r="B220">
+        <v>187.29316641735701</v>
       </c>
       <c r="C220" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>6</v>
       </c>
-      <c r="B221" t="n">
-        <v>71.4542549767644</v>
+      <c r="B221">
+        <v>71.454254976764403</v>
       </c>
       <c r="C221" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>6</v>
       </c>
-      <c r="B222" t="n">
-        <v>0.927110781072103</v>
+      <c r="B222">
+        <v>0.92711078107210299</v>
       </c>
       <c r="C222" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>6</v>
       </c>
-      <c r="B223" t="n">
-        <v>57.6688095430669</v>
+      <c r="B223">
+        <v>57.668809543066899</v>
       </c>
       <c r="C223" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
-      <c r="B224" t="n">
-        <v>91.4818903890573</v>
+      <c r="B224">
+        <v>91.481890389057298</v>
       </c>
       <c r="C224" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
-      <c r="B225" t="n">
-        <v>0.893288727526816</v>
+      <c r="B225">
+        <v>0.89328872752681598</v>
       </c>
       <c r="C225" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>7</v>
       </c>
-      <c r="B226" t="n">
-        <v>64.2678818490367</v>
+      <c r="B226">
+        <v>64.267881849036698</v>
       </c>
       <c r="C226" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>8</v>
       </c>
-      <c r="B227" t="n">
-        <v>98.2281396576425</v>
+      <c r="B227">
+        <v>98.228139657642501</v>
       </c>
       <c r="C227" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>8</v>
       </c>
-      <c r="B228" t="n">
-        <v>0.875849998134773</v>
+      <c r="B228">
+        <v>0.87584999813477304</v>
       </c>
       <c r="C228" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>8</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>64.3204957206882</v>
       </c>
       <c r="C229" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>9</v>
       </c>
-      <c r="B230" t="n">
-        <v>81.9515840797303</v>
+      <c r="B230">
+        <v>81.951584079730296</v>
       </c>
       <c r="C230" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>9</v>
       </c>
-      <c r="B231" t="n">
-        <v>0.899253657944638</v>
+      <c r="B231">
+        <v>0.89925365794463796</v>
       </c>
       <c r="C231" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>9</v>
       </c>
-      <c r="B232" t="n">
-        <v>54.2541504216061</v>
+      <c r="B232">
+        <v>54.254150421606099</v>
       </c>
       <c r="C232" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>3</v>
       </c>
-      <c r="B233" t="n">
-        <v>4112.82667067027</v>
+      <c r="B233">
+        <v>4112.8266706702698</v>
       </c>
       <c r="C233" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>3</v>
       </c>
-      <c r="B234" t="n">
-        <v>0.81293441117259</v>
+      <c r="B234">
+        <v>0.81293441117259002</v>
       </c>
       <c r="C234" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>3</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>2266.08589650251</v>
       </c>
       <c r="C235" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>5</v>
       </c>
-      <c r="B236" t="n">
-        <v>9322.45818357374</v>
+      <c r="B236">
+        <v>9322.4581835737408</v>
       </c>
       <c r="C236" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>5</v>
       </c>
-      <c r="B237" t="n">
-        <v>0.0198124284137608</v>
+      <c r="B237">
+        <v>1.98124284137608E-2</v>
       </c>
       <c r="C237" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>5</v>
       </c>
-      <c r="B238" t="n">
-        <v>7431.02319019407</v>
+      <c r="B238">
+        <v>7431.0231901940697</v>
       </c>
       <c r="C238" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>6</v>
       </c>
-      <c r="B239" t="n">
-        <v>4456.26193569975</v>
+      <c r="B239">
+        <v>4456.2619356997502</v>
       </c>
       <c r="C239" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
-      <c r="B240" t="n">
-        <v>0.790821338659691</v>
+      <c r="B240">
+        <v>0.79082133865969095</v>
       </c>
       <c r="C240" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>6</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>3291.10048898179</v>
       </c>
       <c r="C241" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>7</v>
       </c>
-      <c r="B242" t="n">
-        <v>3113.02235719151</v>
+      <c r="B242">
+        <v>3113.0223571915099</v>
       </c>
       <c r="C242" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>7</v>
       </c>
-      <c r="B243" t="n">
-        <v>0.893860801371588</v>
+      <c r="B243">
+        <v>0.89386080137158797</v>
       </c>
       <c r="C243" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>7</v>
       </c>
-      <c r="B244" t="n">
-        <v>2051.61483540084</v>
+      <c r="B244">
+        <v>2051.6148354008401</v>
       </c>
       <c r="C244" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>8</v>
       </c>
-      <c r="B245" t="n">
-        <v>3229.60524947072</v>
+      <c r="B245">
+        <v>3229.6052494707201</v>
       </c>
       <c r="C245" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>8</v>
       </c>
-      <c r="B246" t="n">
-        <v>0.885664510388519</v>
+      <c r="B246">
+        <v>0.88566451038851901</v>
       </c>
       <c r="C246" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>8</v>
       </c>
-      <c r="B247" t="n">
-        <v>2270.80478220084</v>
+      <c r="B247">
+        <v>2270.8047822008398</v>
       </c>
       <c r="C247" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>9</v>
       </c>
-      <c r="B248" t="n">
-        <v>3773.84439157252</v>
+      <c r="B248">
+        <v>3773.8443915725202</v>
       </c>
       <c r="C248" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>9</v>
       </c>
-      <c r="B249" t="n">
-        <v>0.855032255383776</v>
+      <c r="B249">
+        <v>0.85503225538377603</v>
       </c>
       <c r="C249" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>9</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>2460.83634677192</v>
       </c>
       <c r="C250" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>3</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>2555.39405210206</v>
       </c>
       <c r="C251" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>3</v>
       </c>
-      <c r="B252" t="n">
-        <v>0.874814141223802</v>
+      <c r="B252">
+        <v>0.87481414122380197</v>
       </c>
       <c r="C252" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>3</v>
       </c>
-      <c r="B253" t="n">
-        <v>1063.64713367548</v>
+      <c r="B253">
+        <v>1063.6471336754801</v>
       </c>
       <c r="C253" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>5</v>
       </c>
-      <c r="B254" t="n">
-        <v>3256.64960836551</v>
+      <c r="B254">
+        <v>3256.6496083655102</v>
       </c>
       <c r="C254" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>5</v>
       </c>
-      <c r="B255" t="n">
-        <v>0.775506632806344</v>
+      <c r="B255">
+        <v>0.77550663280634402</v>
       </c>
       <c r="C255" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>5</v>
       </c>
-      <c r="B256" t="n">
-        <v>2556.54280486827</v>
+      <c r="B256">
+        <v>2556.5428048682702</v>
       </c>
       <c r="C256" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>6</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>1572.93832451199</v>
       </c>
       <c r="C257" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>6</v>
       </c>
-      <c r="B258" t="n">
-        <v>0.945910067151473</v>
+      <c r="B258">
+        <v>0.94591006715147297</v>
       </c>
       <c r="C258" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>6</v>
       </c>
-      <c r="B259" t="n">
-        <v>983.222531293456</v>
+      <c r="B259">
+        <v>983.22253129345597</v>
       </c>
       <c r="C259" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>7</v>
       </c>
-      <c r="B260" t="n">
-        <v>2315.8151822456</v>
+      <c r="B260">
+        <v>2315.8151822456002</v>
       </c>
       <c r="C260" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
-      <c r="B261" t="n">
-        <v>0.89598667667291</v>
+      <c r="B261">
+        <v>0.89598667667290999</v>
       </c>
       <c r="C261" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>7</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>1187.63305480744</v>
       </c>
       <c r="C262" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>8</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>2735.84011311419</v>
       </c>
       <c r="C263" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>8</v>
       </c>
-      <c r="B264" t="n">
-        <v>0.85022243107342</v>
+      <c r="B264">
+        <v>0.85022243107341999</v>
       </c>
       <c r="C264" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>8</v>
       </c>
-      <c r="B265" t="n">
-        <v>1660.78783911309</v>
+      <c r="B265">
+        <v>1660.7878391130901</v>
       </c>
       <c r="C265" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>9</v>
       </c>
-      <c r="B266" t="n">
-        <v>2123.67447433579</v>
+      <c r="B266">
+        <v>2123.6744743357899</v>
       </c>
       <c r="C266" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>9</v>
       </c>
-      <c r="B267" t="n">
-        <v>0.903820624712288</v>
+      <c r="B267">
+        <v>0.90382062471228797</v>
       </c>
       <c r="C267" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>9</v>
       </c>
-      <c r="B268" t="n">
-        <v>1142.05933661595</v>
+      <c r="B268">
+        <v>1142.0593366159501</v>
       </c>
       <c r="C268" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>3</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>2259.64142782003</v>
       </c>
       <c r="C269" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>3</v>
       </c>
-      <c r="B270" t="n">
-        <v>0.911458658399613</v>
+      <c r="B270">
+        <v>0.91145865839961304</v>
       </c>
       <c r="C270" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>3</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>1476.14792526567</v>
       </c>
       <c r="C271" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>5</v>
       </c>
-      <c r="B272" t="n">
-        <v>6324.75840168227</v>
+      <c r="B272">
+        <v>6324.7584016822702</v>
       </c>
       <c r="C272" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>5</v>
       </c>
-      <c r="B273" t="n">
-        <v>0.16503459059078</v>
+      <c r="B273">
+        <v>0.16503459059077999</v>
       </c>
       <c r="C273" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>5</v>
       </c>
-      <c r="B274" t="n">
-        <v>4886.91019898411</v>
+      <c r="B274">
+        <v>4886.9101989841101</v>
       </c>
       <c r="C274" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>6</v>
       </c>
-      <c r="B275" t="n">
-        <v>785.590892442956</v>
+      <c r="B275">
+        <v>785.59089244295603</v>
       </c>
       <c r="C275" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>6</v>
       </c>
-      <c r="B276" t="n">
-        <v>0.977911407362528</v>
+      <c r="B276">
+        <v>0.97791140736252802</v>
       </c>
       <c r="C276" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>6</v>
       </c>
-      <c r="B277" t="n">
-        <v>630.184208675186</v>
+      <c r="B277">
+        <v>630.18420867518603</v>
       </c>
       <c r="C277" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>7</v>
       </c>
-      <c r="B278" t="n">
-        <v>1766.6831618738</v>
+      <c r="B278">
+        <v>1766.6831618737999</v>
       </c>
       <c r="C278" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>7</v>
       </c>
-      <c r="B279" t="n">
-        <v>0.934773877660717</v>
+      <c r="B279">
+        <v>0.93477387766071696</v>
       </c>
       <c r="C279" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>7</v>
       </c>
-      <c r="B280" t="n">
-        <v>950.928268383079</v>
+      <c r="B280">
+        <v>950.92826838307894</v>
       </c>
       <c r="C280" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>8</v>
       </c>
-      <c r="B281" t="n">
-        <v>1930.49462239852</v>
+      <c r="B281">
+        <v>1930.4946223985201</v>
       </c>
       <c r="C281" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>8</v>
       </c>
-      <c r="B282" t="n">
-        <v>0.922566822761607</v>
+      <c r="B282">
+        <v>0.92256682276160695</v>
       </c>
       <c r="C282" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>8</v>
       </c>
-      <c r="B283" t="n">
-        <v>989.188972705133</v>
+      <c r="B283">
+        <v>989.18897270513298</v>
       </c>
       <c r="C283" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>9</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>1539.8555235489</v>
       </c>
       <c r="C284" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>9</v>
       </c>
-      <c r="B285" t="n">
-        <v>0.934031202936526</v>
+      <c r="B285">
+        <v>0.93403120293652597</v>
       </c>
       <c r="C285" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>9</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>1044.15713161335</v>
       </c>
       <c r="C286" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>3</v>
       </c>
-      <c r="B287" t="n">
-        <v>6676.6061113444</v>
+      <c r="B287">
+        <v>6676.6061113444002</v>
       </c>
       <c r="C287" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>3</v>
       </c>
-      <c r="B288" t="n">
-        <v>0.942070636056893</v>
+      <c r="B288">
+        <v>0.94207063605689301</v>
       </c>
       <c r="C288" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>3</v>
       </c>
-      <c r="B289" t="n">
-        <v>4218.83343295228</v>
+      <c r="B289">
+        <v>4218.8334329522804</v>
       </c>
       <c r="C289" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>5</v>
       </c>
-      <c r="B290" t="n">
-        <v>25747.8052557758</v>
+      <c r="B290">
+        <v>25747.805255775798</v>
       </c>
       <c r="C290" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>5</v>
       </c>
-      <c r="B291" t="n">
-        <v>0.0393851601855876</v>
+      <c r="B291">
+        <v>3.9385160185587603E-2</v>
       </c>
       <c r="C291" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>5</v>
       </c>
-      <c r="B292" t="n">
-        <v>23047.5255008699</v>
+      <c r="B292">
+        <v>23047.525500869899</v>
       </c>
       <c r="C292" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>6</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>4154.89144063611</v>
       </c>
       <c r="C293" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>6</v>
       </c>
-      <c r="B294" t="n">
-        <v>0.969743682011768</v>
+      <c r="B294">
+        <v>0.96974368201176797</v>
       </c>
       <c r="C294" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>6</v>
       </c>
-      <c r="B295" t="n">
-        <v>3242.6372375226</v>
+      <c r="B295">
+        <v>3242.6372375226001</v>
       </c>
       <c r="C295" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>7</v>
       </c>
-      <c r="B296" t="n">
-        <v>6396.31153150532</v>
+      <c r="B296">
+        <v>6396.3115315053201</v>
       </c>
       <c r="C296" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>7</v>
       </c>
-      <c r="B297" t="n">
-        <v>0.941682587528582</v>
+      <c r="B297">
+        <v>0.94168258752858203</v>
       </c>
       <c r="C297" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>7</v>
       </c>
-      <c r="B298" t="n">
-        <v>4544.44253613518</v>
+      <c r="B298">
+        <v>4544.4425361351796</v>
       </c>
       <c r="C298" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>8</v>
       </c>
-      <c r="B299" t="n">
-        <v>6710.82804259918</v>
+      <c r="B299">
+        <v>6710.8280425991798</v>
       </c>
       <c r="C299" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>8</v>
       </c>
-      <c r="B300" t="n">
-        <v>0.935498319733078</v>
+      <c r="B300">
+        <v>0.93549831973307795</v>
       </c>
       <c r="C300" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>8</v>
       </c>
-      <c r="B301" t="n">
-        <v>5110.22073639815</v>
+      <c r="B301">
+        <v>5110.2207363981497</v>
       </c>
       <c r="C301" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>9</v>
       </c>
-      <c r="B302" t="n">
-        <v>5220.06707096243</v>
+      <c r="B302">
+        <v>5220.0670709624301</v>
       </c>
       <c r="C302" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>9</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>0.95340471900404</v>
       </c>
       <c r="C303" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>9</v>
       </c>
-      <c r="B304" t="n">
-        <v>3611.10952301855</v>
+      <c r="B304">
+        <v>3611.1095230185501</v>
       </c>
       <c r="C304" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>3</v>
       </c>
-      <c r="B305" t="n">
-        <v>418.034274583473</v>
+      <c r="B305">
+        <v>418.03427458347301</v>
       </c>
       <c r="C305" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>3</v>
       </c>
-      <c r="B306" t="n">
-        <v>0.946247367876941</v>
+      <c r="B306">
+        <v>0.94624736787694097</v>
       </c>
       <c r="C306" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>3</v>
       </c>
-      <c r="B307" t="n">
-        <v>299.134591333457</v>
+      <c r="B307">
+        <v>299.13459133345702</v>
       </c>
       <c r="C307" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>5</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>1262.61810764093</v>
       </c>
       <c r="C308" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>5</v>
       </c>
-      <c r="B309" t="n">
-        <v>0.48422840893924</v>
+      <c r="B309">
+        <v>0.48422840893924002</v>
       </c>
       <c r="C309" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>5</v>
       </c>
-      <c r="B310" t="n">
-        <v>982.034530753312</v>
+      <c r="B310">
+        <v>982.03453075331197</v>
       </c>
       <c r="C310" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>6</v>
       </c>
-      <c r="B311" t="n">
-        <v>382.660224598316</v>
+      <c r="B311">
+        <v>382.66022459831601</v>
       </c>
       <c r="C311" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>6</v>
       </c>
-      <c r="B312" t="n">
-        <v>0.93172572796229</v>
+      <c r="B312">
+        <v>0.93172572796229003</v>
       </c>
       <c r="C312" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>6</v>
       </c>
-      <c r="B313" t="n">
-        <v>318.916049295859</v>
+      <c r="B313">
+        <v>318.91604929585901</v>
       </c>
       <c r="C313" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>7</v>
       </c>
-      <c r="B314" t="n">
-        <v>308.783661689257</v>
+      <c r="B314">
+        <v>308.78366168925697</v>
       </c>
       <c r="C314" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>7</v>
       </c>
-      <c r="B315" t="n">
-        <v>0.974904387577299</v>
+      <c r="B315">
+        <v>0.97490438757729903</v>
       </c>
       <c r="C315" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>7</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>219.482067637304</v>
       </c>
       <c r="C316" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>8</v>
       </c>
-      <c r="B317" t="n">
-        <v>334.858389722887</v>
+      <c r="B317">
+        <v>334.85838972288701</v>
       </c>
       <c r="C317" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>8</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>0.968449527606148</v>
       </c>
       <c r="C318" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>8</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>239.123627122333</v>
       </c>
       <c r="C319" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>9</v>
       </c>
-      <c r="B320" t="n">
-        <v>294.089622958199</v>
+      <c r="B320">
+        <v>294.08962295819902</v>
       </c>
       <c r="C320" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>9</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>0.961410883963153</v>
       </c>
       <c r="C321" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>9</v>
       </c>
-      <c r="B322" t="n">
-        <v>242.774057306112</v>
+      <c r="B322">
+        <v>242.77405730611201</v>
       </c>
       <c r="C322" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>3</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>5683.7586296451</v>
       </c>
       <c r="C323" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>3</v>
       </c>
-      <c r="B324" t="n">
-        <v>0.68216932647495</v>
+      <c r="B324">
+        <v>0.68216932647494999</v>
       </c>
       <c r="C324" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>3</v>
       </c>
-      <c r="B325" t="n">
-        <v>3330.26892295713</v>
+      <c r="B325">
+        <v>3330.2689229571301</v>
       </c>
       <c r="C325" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>5</v>
       </c>
-      <c r="B326" t="n">
-        <v>9303.40831380992</v>
+      <c r="B326">
+        <v>9303.4083138099195</v>
       </c>
       <c r="C326" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>5</v>
       </c>
-      <c r="B327" t="n">
-        <v>0.0714840205417238</v>
+      <c r="B327">
+        <v>7.14840205417238E-2</v>
       </c>
       <c r="C327" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>5</v>
       </c>
-      <c r="B328" t="n">
-        <v>7561.80058254113</v>
+      <c r="B328">
+        <v>7561.8005825411301</v>
       </c>
       <c r="C328" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>6</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>3780.03807639655</v>
       </c>
       <c r="C329" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>6</v>
       </c>
-      <c r="B330" t="n">
-        <v>0.852981089312867</v>
+      <c r="B330">
+        <v>0.85298108931286698</v>
       </c>
       <c r="C330" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>6</v>
       </c>
-      <c r="B331" t="n">
-        <v>2870.13957318426</v>
+      <c r="B331">
+        <v>2870.1395731842599</v>
       </c>
       <c r="C331" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>7</v>
       </c>
-      <c r="B332" t="n">
-        <v>3953.84275471527</v>
+      <c r="B332">
+        <v>3953.8427547152701</v>
       </c>
       <c r="C332" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>7</v>
       </c>
-      <c r="B333" t="n">
-        <v>0.83241888234059</v>
+      <c r="B333">
+        <v>0.83241888234059003</v>
       </c>
       <c r="C333" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>7</v>
       </c>
-      <c r="B334" t="n">
-        <v>2484.35568714052</v>
+      <c r="B334">
+        <v>2484.3556871405199</v>
       </c>
       <c r="C334" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>8</v>
       </c>
-      <c r="B335" t="n">
-        <v>4730.02473407149</v>
+      <c r="B335">
+        <v>4730.0247340714895</v>
       </c>
       <c r="C335" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>8</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>0.770317887353269</v>
       </c>
       <c r="C336" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>8</v>
       </c>
-      <c r="B337" t="n">
-        <v>3133.41191340547</v>
+      <c r="B337">
+        <v>3133.4119134054699</v>
       </c>
       <c r="C337" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>9</v>
       </c>
-      <c r="B338" t="n">
-        <v>4655.14698360716</v>
+      <c r="B338">
+        <v>4655.1469836071601</v>
       </c>
       <c r="C338" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>9</v>
       </c>
-      <c r="B339" t="n">
-        <v>0.773100335280711</v>
+      <c r="B339">
+        <v>0.77310033528071098</v>
       </c>
       <c r="C339" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>9</v>
       </c>
-      <c r="B340" t="n">
-        <v>2970.09572854702</v>
+      <c r="B340">
+        <v>2970.0957285470199</v>
       </c>
       <c r="C340" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>3</v>
       </c>
-      <c r="B341" t="n">
-        <v>61101.5156440493</v>
+      <c r="B341">
+        <v>61101.515644049301</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>3</v>
       </c>
-      <c r="B342"/>
       <c r="C342" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>3</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>46939.5</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>5</v>
       </c>
-      <c r="B344" t="n">
-        <v>58228.7444102509</v>
+      <c r="B344">
+        <v>58228.744410250903</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>5</v>
       </c>
-      <c r="B345" t="n">
-        <v>0.0920346658748332</v>
+      <c r="B345">
+        <v>9.2034665874833194E-2</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>5</v>
       </c>
-      <c r="B346" t="n">
-        <v>43760.478147941</v>
+      <c r="B346">
+        <v>43760.478147941001</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>6</v>
       </c>
-      <c r="B347" t="n">
-        <v>9354.07417229143</v>
+      <c r="B347">
+        <v>9354.0741722914299</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>6</v>
       </c>
-      <c r="B348" t="n">
-        <v>0.987297587080386</v>
+      <c r="B348">
+        <v>0.98729758708038595</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>6</v>
       </c>
-      <c r="B349" t="n">
-        <v>7314.37012155832</v>
+      <c r="B349">
+        <v>7314.3701215583196</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>8</v>
       </c>
-      <c r="B350" t="n">
-        <v>61104.5966643244</v>
+      <c r="B350">
+        <v>61104.596664324403</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>8</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>0.216342282478827</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>8</v>
       </c>
-      <c r="B352" t="n">
-        <v>46917.7902887069</v>
+      <c r="B352">
+        <v>46917.790288706899</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>9</v>
       </c>
-      <c r="B353" t="n">
-        <v>61103.0476294259</v>
+      <c r="B353">
+        <v>61103.047629425899</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>9</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>0.216342282479002</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>9</v>
       </c>
-      <c r="B355" t="n">
-        <v>46928.6451443534</v>
+      <c r="B355">
+        <v>46928.645144353402</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>3</v>
       </c>
-      <c r="B356" t="n">
-        <v>453.803684662655</v>
+      <c r="B356">
+        <v>453.80368466265497</v>
       </c>
       <c r="C356" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>3</v>
       </c>
-      <c r="B357" t="n">
-        <v>0.853066267872979</v>
+      <c r="B357">
+        <v>0.85306626787297901</v>
       </c>
       <c r="C357" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>3</v>
       </c>
-      <c r="B358" t="n">
-        <v>307.371244534838</v>
+      <c r="B358">
+        <v>307.37124453483801</v>
       </c>
       <c r="C358" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>5</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>1123.23849703928</v>
       </c>
       <c r="C359" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>5</v>
       </c>
-      <c r="B360" t="n">
-        <v>0.0212445786399692</v>
+      <c r="B360">
+        <v>2.1244578639969199E-2</v>
       </c>
       <c r="C360" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>5</v>
       </c>
-      <c r="B361" t="n">
-        <v>924.28122612435</v>
+      <c r="B361">
+        <v>924.28122612435004</v>
       </c>
       <c r="C361" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>6</v>
       </c>
-      <c r="B362" t="n">
-        <v>459.759039874483</v>
+      <c r="B362">
+        <v>459.75903987448299</v>
       </c>
       <c r="C362" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>6</v>
       </c>
-      <c r="B363" t="n">
-        <v>0.850066481321498</v>
+      <c r="B363">
+        <v>0.85006648132149798</v>
       </c>
       <c r="C363" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>6</v>
       </c>
-      <c r="B364" t="n">
-        <v>389.165296046249</v>
+      <c r="B364">
+        <v>389.16529604624901</v>
       </c>
       <c r="C364" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>7</v>
       </c>
-      <c r="B365" t="n">
-        <v>298.601596242486</v>
+      <c r="B365">
+        <v>298.60159624248598</v>
       </c>
       <c r="C365" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>7</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>0.931969275305914</v>
       </c>
       <c r="C366" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>7</v>
       </c>
-      <c r="B367" t="n">
-        <v>218.694913897332</v>
+      <c r="B367">
+        <v>218.69491389733199</v>
       </c>
       <c r="C367" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>8</v>
       </c>
-      <c r="B368" t="n">
-        <v>322.114731650994</v>
+      <c r="B368">
+        <v>322.11473165099397</v>
       </c>
       <c r="C368" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>8</v>
       </c>
-      <c r="B369" t="n">
-        <v>0.91973918332003</v>
+      <c r="B369">
+        <v>0.91973918332003002</v>
       </c>
       <c r="C369" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>8</v>
       </c>
-      <c r="B370" t="n">
-        <v>236.44854076</v>
+      <c r="B370">
+        <v>236.44854075999999</v>
       </c>
       <c r="C370" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>9</v>
       </c>
-      <c r="B371" t="n">
-        <v>347.580853649889</v>
+      <c r="B371">
+        <v>347.58085364988898</v>
       </c>
       <c r="C371" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>9</v>
       </c>
-      <c r="B372" t="n">
-        <v>0.915094356872186</v>
+      <c r="B372">
+        <v>0.91509435687218599</v>
       </c>
       <c r="C372" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>9</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>282.699617534776</v>
       </c>
       <c r="C373" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>3</v>
       </c>
-      <c r="B374" t="n">
-        <v>344.255867939139</v>
+      <c r="B374">
+        <v>344.25586793913902</v>
       </c>
       <c r="C374" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>3</v>
       </c>
-      <c r="B375" t="n">
-        <v>0.367161318162518</v>
+      <c r="B375">
+        <v>0.36716131816251801</v>
       </c>
       <c r="C375" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>3</v>
       </c>
-      <c r="B376" t="n">
-        <v>199.679412786279</v>
+      <c r="B376">
+        <v>199.67941278627899</v>
       </c>
       <c r="C376" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>5</v>
       </c>
-      <c r="B377" t="n">
-        <v>400.149042388633</v>
+      <c r="B377">
+        <v>400.14904238863301</v>
       </c>
       <c r="C377" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>5</v>
       </c>
-      <c r="B378" t="n">
-        <v>0.027803765460502</v>
+      <c r="B378">
+        <v>2.7803765460501999E-2</v>
       </c>
       <c r="C378" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>5</v>
       </c>
-      <c r="B379" t="n">
-        <v>262.907113508238</v>
+      <c r="B379">
+        <v>262.90711350823801</v>
       </c>
       <c r="C379" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>6</v>
       </c>
-      <c r="B380" t="n">
-        <v>1.51344985116669</v>
+      <c r="B380">
+        <v>1.5134498511666901</v>
       </c>
       <c r="C380" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>6</v>
       </c>
-      <c r="B381" t="n">
-        <v>0.58828868454694</v>
+      <c r="B381">
+        <v>0.58828868454694005</v>
       </c>
       <c r="C381" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>6</v>
       </c>
-      <c r="B382" t="n">
-        <v>1.28110804355011</v>
+      <c r="B382">
+        <v>1.2811080435501101</v>
       </c>
       <c r="C382" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>8</v>
       </c>
-      <c r="B383" t="n">
-        <v>394.46850037198</v>
+      <c r="B383">
+        <v>394.46850037197999</v>
       </c>
       <c r="C383" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>8</v>
       </c>
-      <c r="B384" t="n">
-        <v>0.276411061658657</v>
+      <c r="B384">
+        <v>0.27641106165865698</v>
       </c>
       <c r="C384" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>8</v>
       </c>
-      <c r="B385" t="n">
-        <v>200.109358405549</v>
+      <c r="B385">
+        <v>200.10935840554899</v>
       </c>
       <c r="C385" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>9</v>
       </c>
-      <c r="B386" t="n">
-        <v>341.806712200538</v>
+      <c r="B386">
+        <v>341.80671220053802</v>
       </c>
       <c r="C386" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>9</v>
       </c>
-      <c r="B387" t="n">
-        <v>0.328163513641139</v>
+      <c r="B387">
+        <v>0.32816351364113899</v>
       </c>
       <c r="C387" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>9</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>189.386324371538</v>
       </c>
       <c r="C388" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>3</v>
       </c>
-      <c r="B389" t="n">
-        <v>130.234416155245</v>
+      <c r="B389">
+        <v>130.23441615524499</v>
       </c>
       <c r="C389" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>3</v>
       </c>
-      <c r="B390" t="n">
-        <v>0.256961882467947</v>
+      <c r="B390">
+        <v>0.25696188246794699</v>
       </c>
       <c r="C390" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>3</v>
       </c>
-      <c r="B391" t="n">
-        <v>72.6165855882359</v>
+      <c r="B391">
+        <v>72.616585588235907</v>
       </c>
       <c r="C391" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>5</v>
       </c>
-      <c r="B392" t="n">
-        <v>131.153950530132</v>
+      <c r="B392">
+        <v>131.15395053013199</v>
       </c>
       <c r="C392" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>5</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>0.181812133775692</v>
       </c>
       <c r="C393" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>5</v>
       </c>
-      <c r="B394" t="n">
-        <v>81.0904276649279</v>
+      <c r="B394">
+        <v>81.090427664927901</v>
       </c>
       <c r="C394" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>6</v>
       </c>
-      <c r="B395" t="n">
-        <v>76.6988378461349</v>
+      <c r="B395">
+        <v>76.698837846134893</v>
       </c>
       <c r="C395" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>6</v>
       </c>
-      <c r="B396" t="n">
-        <v>0.804850364092562</v>
+      <c r="B396">
+        <v>0.80485036409256205</v>
       </c>
       <c r="C396" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>6</v>
       </c>
-      <c r="B397" t="n">
-        <v>53.8642154609547</v>
+      <c r="B397">
+        <v>53.864215460954703</v>
       </c>
       <c r="C397" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>7</v>
       </c>
-      <c r="B398" t="n">
-        <v>88.3808278413086</v>
+      <c r="B398">
+        <v>88.380827841308601</v>
       </c>
       <c r="C398" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>7</v>
       </c>
-      <c r="B399" t="n">
-        <v>0.649742510287702</v>
+      <c r="B399">
+        <v>0.64974251028770202</v>
       </c>
       <c r="C399" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>7</v>
       </c>
-      <c r="B400" t="n">
-        <v>50.8464490116867</v>
+      <c r="B400">
+        <v>50.846449011686701</v>
       </c>
       <c r="C400" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>8</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>131.518347431281</v>
       </c>
       <c r="C401" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>8</v>
       </c>
-      <c r="B402" t="n">
-        <v>0.272307214220276</v>
+      <c r="B402">
+        <v>0.27230721422027598</v>
       </c>
       <c r="C402" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>8</v>
       </c>
-      <c r="B403" t="n">
-        <v>71.7057250741745</v>
+      <c r="B403">
+        <v>71.705725074174495</v>
       </c>
       <c r="C403" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>9</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>117.393706782777</v>
       </c>
       <c r="C404" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>9</v>
       </c>
-      <c r="B405" t="n">
-        <v>0.413674038633483</v>
+      <c r="B405">
+        <v>0.41367403863348301</v>
       </c>
       <c r="C405" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>9</v>
       </c>
-      <c r="B406" t="n">
-        <v>72.5612864221335</v>
+      <c r="B406">
+        <v>72.561286422133506</v>
       </c>
       <c r="C406" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>3</v>
       </c>
-      <c r="B407" t="n">
-        <v>36.6689566158661</v>
+      <c r="B407">
+        <v>36.668956615866101</v>
       </c>
       <c r="C407" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>3</v>
       </c>
-      <c r="B408" t="n">
-        <v>0.842786555588129</v>
+      <c r="B408">
+        <v>0.84278655558812898</v>
       </c>
       <c r="C408" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>3</v>
       </c>
-      <c r="B409" t="n">
-        <v>22.9853106716806</v>
+      <c r="B409">
+        <v>22.985310671680601</v>
       </c>
       <c r="C409" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>5</v>
       </c>
-      <c r="B410" t="n">
-        <v>76.1472828995767</v>
+      <c r="B410">
+        <v>76.147282899576695</v>
       </c>
       <c r="C410" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>5</v>
       </c>
-      <c r="B411" t="n">
-        <v>0.165855018106132</v>
+      <c r="B411">
+        <v>0.16585501810613201</v>
       </c>
       <c r="C411" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>5</v>
       </c>
-      <c r="B412" t="n">
-        <v>66.1799820006278</v>
+      <c r="B412">
+        <v>66.179982000627803</v>
       </c>
       <c r="C412" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>6</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>21.2578048162597</v>
       </c>
       <c r="C413" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>6</v>
       </c>
-      <c r="B414" t="n">
-        <v>0.916975583246609</v>
+      <c r="B414">
+        <v>0.91697558324660899</v>
       </c>
       <c r="C414" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>6</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>17.0484953348356</v>
       </c>
       <c r="C415" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>7</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>25.9766323896839</v>
       </c>
       <c r="C416" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>7</v>
       </c>
-      <c r="B417" t="n">
-        <v>0.903280510180284</v>
+      <c r="B417">
+        <v>0.90328051018028399</v>
       </c>
       <c r="C417" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>7</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>18.9189274229505</v>
       </c>
       <c r="C418" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>8</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>29.4749600076542</v>
       </c>
       <c r="C419" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>8</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>0.876393815912618</v>
       </c>
       <c r="C420" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>8</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>21.7321277032589</v>
       </c>
       <c r="C421" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>9</v>
       </c>
-      <c r="B422" t="n">
-        <v>25.8021256095267</v>
+      <c r="B422">
+        <v>25.802125609526701</v>
       </c>
       <c r="C422" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>9</v>
       </c>
-      <c r="B423" t="n">
-        <v>0.881516423866461</v>
+      <c r="B423">
+        <v>0.88151642386646101</v>
       </c>
       <c r="C423" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>9</v>
       </c>
-      <c r="B424" t="n">
-        <v>20.1612743209834</v>
+      <c r="B424">
+        <v>20.161274320983399</v>
       </c>
       <c r="C424" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/outcome/model_select_flu.xlsx
+++ b/outcome/model_select_flu.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kanggle-my.sharepoint.com/personal/phonedata_kanggle_onmicrosoft_com/Documents/XMU/likangguo/2022/OK 11 COVID_impact_luoli/code/outcome/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kanggle-my.sharepoint.com/personal/phonedata_kanggle_onmicrosoft_com/Documents/XMU/likangguo/2022/11 COVID_impact_luoli/code/outcome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_ABAA72291DE16DA756A53C4E5F7A0EC4EAD94F12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64499F66-6B00-4189-9B74-EDF66BA536F1}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_ABAA72291DE16DA756A53C4E5F7A0EC4EAD94F12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B435F2C-333D-487A-876C-7748C138E154}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3948" yWindow="2892" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="result" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="39">
   <si>
     <t>Method</t>
   </si>
@@ -120,12 +121,35 @@
   <si>
     <t>Typhus</t>
   </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>Final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -140,16 +164,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,12 +213,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -178,6 +250,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,17 +537,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C371" sqref="C371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -493,7 +569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -504,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -515,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -526,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -537,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -548,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -559,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -570,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -581,7 +657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -592,7 +668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -603,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -614,7 +690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -625,7 +701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -636,7 +712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -647,7 +723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -658,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -669,7 +745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -680,7 +756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -691,7 +767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -702,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -713,7 +789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -724,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -735,7 +811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -746,7 +822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -757,7 +833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -768,7 +844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -779,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -790,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -801,7 +877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -812,7 +888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -823,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -834,7 +910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -845,7 +921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -856,7 +932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -867,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -878,7 +954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -889,7 +965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -900,7 +976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -911,7 +987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -922,7 +998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -933,7 +1009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -944,7 +1020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -955,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -966,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -977,7 +1053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -988,7 +1064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -999,7 +1075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1021,7 +1097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1032,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1054,7 +1130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1087,7 +1163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1098,7 +1174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +1262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -1230,7 +1306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1252,7 +1328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1263,7 +1339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1274,7 +1350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -1285,7 +1361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -1296,7 +1372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -1307,7 +1383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1340,7 +1416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -1351,7 +1427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -1362,7 +1438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -1373,7 +1449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -1384,7 +1460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -1428,7 +1504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -1461,7 +1537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -1483,7 +1559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -1494,7 +1570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +1581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +1592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +1614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -1560,7 +1636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -1571,7 +1647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -1582,7 +1658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -1593,7 +1669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -1604,7 +1680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -1615,7 +1691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -1626,7 +1702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -1637,7 +1713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -1648,7 +1724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -1659,7 +1735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -1670,7 +1746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -1692,7 +1768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -1703,7 +1779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -1714,7 +1790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -1725,7 +1801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -1736,7 +1812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -1747,7 +1823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -1758,7 +1834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -1769,7 +1845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -1780,7 +1856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -1791,7 +1867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -1802,7 +1878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -1813,7 +1889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -1824,7 +1900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -1835,7 +1911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -1857,7 +1933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -1868,7 +1944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +1955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -1890,7 +1966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -1901,7 +1977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -1912,7 +1988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -1923,7 +1999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -1934,7 +2010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -1945,7 +2021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +2032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -1967,7 +2043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -1978,7 +2054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -1989,7 +2065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -2000,7 +2076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -2011,7 +2087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -2022,7 +2098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -2033,7 +2109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -2044,7 +2120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -2055,7 +2131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -2066,7 +2142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -2077,7 +2153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -2088,7 +2164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -2099,7 +2175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -2121,7 +2197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -2132,7 +2208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -2143,7 +2219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +2230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -2165,7 +2241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -2187,7 +2263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -2198,7 +2274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -2209,7 +2285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -2220,7 +2296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -2231,7 +2307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>3</v>
       </c>
@@ -2242,7 +2318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>3</v>
       </c>
@@ -2253,7 +2329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>3</v>
       </c>
@@ -2264,7 +2340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -2275,7 +2351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -2286,7 +2362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -2297,7 +2373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -2308,7 +2384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -2319,7 +2395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -2330,7 +2406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -2341,7 +2417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -2352,7 +2428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -2363,7 +2439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -2374,7 +2450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -2385,7 +2461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -2396,7 +2472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -2407,7 +2483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -2418,7 +2494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -2429,7 +2505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>3</v>
       </c>
@@ -2440,7 +2516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>3</v>
       </c>
@@ -2451,7 +2527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>3</v>
       </c>
@@ -2462,7 +2538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -2473,7 +2549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -2484,7 +2560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -2495,7 +2571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -2506,7 +2582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -2517,7 +2593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -2528,7 +2604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -2539,7 +2615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -2550,7 +2626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -2561,7 +2637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -2572,7 +2648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -2583,7 +2659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -2594,7 +2670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -2605,7 +2681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -2616,7 +2692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -2627,7 +2703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>3</v>
       </c>
@@ -2638,7 +2714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>3</v>
       </c>
@@ -2649,7 +2725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>3</v>
       </c>
@@ -2660,7 +2736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -2671,7 +2747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -2682,7 +2758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -2693,7 +2769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -2704,7 +2780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -2715,7 +2791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -2726,7 +2802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -2737,7 +2813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -2748,7 +2824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -2759,7 +2835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -2770,7 +2846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -2781,7 +2857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -2792,7 +2868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -2803,7 +2879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -2814,7 +2890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>9</v>
       </c>
@@ -2825,7 +2901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -2836,7 +2912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>3</v>
       </c>
@@ -2847,7 +2923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>3</v>
       </c>
@@ -2858,7 +2934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -2869,7 +2945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -2880,7 +2956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -2891,7 +2967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -2902,7 +2978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -2913,7 +2989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -2924,7 +3000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -2935,7 +3011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -2946,7 +3022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -2957,7 +3033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -2968,7 +3044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -2979,7 +3055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -2990,7 +3066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>9</v>
       </c>
@@ -3001,7 +3077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -3012,7 +3088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -3023,7 +3099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>3</v>
       </c>
@@ -3034,7 +3110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>3</v>
       </c>
@@ -3045,7 +3121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -3056,7 +3132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -3067,7 +3143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -3078,7 +3154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -3089,7 +3165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -3100,7 +3176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -3111,7 +3187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -3122,7 +3198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -3133,7 +3209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -3144,7 +3220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -3155,7 +3231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -3166,7 +3242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -3177,7 +3253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -3188,7 +3264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -3199,7 +3275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -3210,7 +3286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -3221,7 +3297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>3</v>
       </c>
@@ -3232,7 +3308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>3</v>
       </c>
@@ -3243,7 +3319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>3</v>
       </c>
@@ -3254,7 +3330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -3265,7 +3341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -3276,7 +3352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -3287,7 +3363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -3298,7 +3374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -3309,7 +3385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -3320,7 +3396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -3331,7 +3407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -3342,7 +3418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -3353,7 +3429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>8</v>
       </c>
@@ -3364,7 +3440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -3375,7 +3451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -3386,7 +3462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>9</v>
       </c>
@@ -3397,7 +3473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>9</v>
       </c>
@@ -3408,7 +3484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -3419,7 +3495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>3</v>
       </c>
@@ -3430,7 +3506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>3</v>
       </c>
@@ -3441,7 +3517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>3</v>
       </c>
@@ -3452,7 +3528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -3463,7 +3539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>5</v>
       </c>
@@ -3474,7 +3550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -3485,7 +3561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -3496,7 +3572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -3507,7 +3583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -3518,7 +3594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -3529,7 +3605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -3540,7 +3616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -3551,7 +3627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -3562,7 +3638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -3573,7 +3649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -3584,7 +3660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -3595,7 +3671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -3606,7 +3682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>9</v>
       </c>
@@ -3617,7 +3693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>3</v>
       </c>
@@ -3628,7 +3704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>3</v>
       </c>
@@ -3639,7 +3715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>3</v>
       </c>
@@ -3650,7 +3726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>5</v>
       </c>
@@ -3661,7 +3737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>5</v>
       </c>
@@ -3672,7 +3748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -3683,7 +3759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -3694,7 +3770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -3705,7 +3781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>6</v>
       </c>
@@ -3716,7 +3792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -3727,7 +3803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -3738,7 +3814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -3749,7 +3825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -3760,7 +3836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -3771,7 +3847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -3782,7 +3858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -3793,7 +3869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -3804,7 +3880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>9</v>
       </c>
@@ -3815,7 +3891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>3</v>
       </c>
@@ -3826,7 +3902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>3</v>
       </c>
@@ -3837,7 +3913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>3</v>
       </c>
@@ -3848,7 +3924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>5</v>
       </c>
@@ -3859,7 +3935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>5</v>
       </c>
@@ -3870,7 +3946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -3881,7 +3957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -3892,7 +3968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>6</v>
       </c>
@@ -3903,7 +3979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -3914,7 +3990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -3925,7 +4001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -3936,7 +4012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -3947,7 +4023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>8</v>
       </c>
@@ -3958,7 +4034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>8</v>
       </c>
@@ -3969,7 +4045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>8</v>
       </c>
@@ -3980,7 +4056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -3991,7 +4067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -4002,7 +4078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>9</v>
       </c>
@@ -4013,7 +4089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>3</v>
       </c>
@@ -4024,7 +4100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>3</v>
       </c>
@@ -4035,7 +4111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>3</v>
       </c>
@@ -4046,7 +4122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -4057,7 +4133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>5</v>
       </c>
@@ -4068,7 +4144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -4079,7 +4155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -4090,7 +4166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>6</v>
       </c>
@@ -4101,7 +4177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>6</v>
       </c>
@@ -4112,7 +4188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -4123,7 +4199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -4134,7 +4210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -4145,7 +4221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>8</v>
       </c>
@@ -4156,7 +4232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>8</v>
       </c>
@@ -4167,7 +4243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>8</v>
       </c>
@@ -4178,7 +4254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>9</v>
       </c>
@@ -4189,7 +4265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -4200,7 +4276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>9</v>
       </c>
@@ -4211,7 +4287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>3</v>
       </c>
@@ -4222,7 +4298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>3</v>
       </c>
@@ -4230,7 +4306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>3</v>
       </c>
@@ -4241,7 +4317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -4252,7 +4328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -4263,7 +4339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>5</v>
       </c>
@@ -4274,7 +4350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>6</v>
       </c>
@@ -4285,7 +4361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -4296,7 +4372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>6</v>
       </c>
@@ -4307,7 +4383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>8</v>
       </c>
@@ -4318,7 +4394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>8</v>
       </c>
@@ -4329,7 +4405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>8</v>
       </c>
@@ -4340,7 +4416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>9</v>
       </c>
@@ -4351,7 +4427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -4362,7 +4438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>9</v>
       </c>
@@ -4373,7 +4449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>3</v>
       </c>
@@ -4384,7 +4460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>3</v>
       </c>
@@ -4395,7 +4471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>3</v>
       </c>
@@ -4406,7 +4482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>5</v>
       </c>
@@ -4417,7 +4493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>5</v>
       </c>
@@ -4428,7 +4504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>5</v>
       </c>
@@ -4439,7 +4515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>6</v>
       </c>
@@ -4450,7 +4526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>6</v>
       </c>
@@ -4461,7 +4537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>6</v>
       </c>
@@ -4472,7 +4548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -4483,7 +4559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>7</v>
       </c>
@@ -4494,7 +4570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>7</v>
       </c>
@@ -4505,7 +4581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>8</v>
       </c>
@@ -4516,7 +4592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>8</v>
       </c>
@@ -4527,7 +4603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>8</v>
       </c>
@@ -4538,7 +4614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -4549,7 +4625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>9</v>
       </c>
@@ -4560,7 +4636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>9</v>
       </c>
@@ -4571,7 +4647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>3</v>
       </c>
@@ -4582,7 +4658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>3</v>
       </c>
@@ -4593,7 +4669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>3</v>
       </c>
@@ -4604,7 +4680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -4615,7 +4691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>5</v>
       </c>
@@ -4626,7 +4702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>5</v>
       </c>
@@ -4637,7 +4713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>6</v>
       </c>
@@ -4648,7 +4724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>6</v>
       </c>
@@ -4659,7 +4735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>6</v>
       </c>
@@ -4670,7 +4746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>8</v>
       </c>
@@ -4681,7 +4757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>8</v>
       </c>
@@ -4692,7 +4768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>8</v>
       </c>
@@ -4703,7 +4779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>9</v>
       </c>
@@ -4714,7 +4790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>9</v>
       </c>
@@ -4725,7 +4801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>9</v>
       </c>
@@ -4736,7 +4812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>3</v>
       </c>
@@ -4747,7 +4823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>3</v>
       </c>
@@ -4758,7 +4834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>3</v>
       </c>
@@ -4769,7 +4845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -4780,7 +4856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>5</v>
       </c>
@@ -4791,7 +4867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -4802,7 +4878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>6</v>
       </c>
@@ -4813,7 +4889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>6</v>
       </c>
@@ -4824,7 +4900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>6</v>
       </c>
@@ -4835,7 +4911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>7</v>
       </c>
@@ -4846,7 +4922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -4857,7 +4933,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -4868,7 +4944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -4879,7 +4955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>8</v>
       </c>
@@ -4890,7 +4966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>8</v>
       </c>
@@ -4901,7 +4977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>9</v>
       </c>
@@ -4912,7 +4988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>9</v>
       </c>
@@ -4923,7 +4999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>9</v>
       </c>
@@ -4934,7 +5010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>3</v>
       </c>
@@ -4945,7 +5021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>3</v>
       </c>
@@ -4956,7 +5032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>3</v>
       </c>
@@ -4967,7 +5043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>5</v>
       </c>
@@ -4978,7 +5054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>5</v>
       </c>
@@ -4989,7 +5065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>5</v>
       </c>
@@ -5000,7 +5076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>6</v>
       </c>
@@ -5011,7 +5087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>6</v>
       </c>
@@ -5022,7 +5098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>6</v>
       </c>
@@ -5033,7 +5109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -5044,7 +5120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -5055,7 +5131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -5066,7 +5142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>8</v>
       </c>
@@ -5077,7 +5153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>8</v>
       </c>
@@ -5088,7 +5164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>8</v>
       </c>
@@ -5099,7 +5175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>9</v>
       </c>
@@ -5110,7 +5186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>9</v>
       </c>
@@ -5121,7 +5197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>9</v>
       </c>
@@ -5137,4 +5213,443 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2245C678-A99A-4C6D-AD32-0F4605BBB432}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>